--- a/king_index/output/pe/nuclear_power_pe_original_data.xlsx
+++ b/king_index/output/pe/nuclear_power_pe_original_data.xlsx
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1060.310703922</v>
+        <v>1087.5167440599</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>43.7628475276</v>
+        <v>43.5695487311</v>
       </c>
       <c r="H3" t="n">
-        <v>93.12444277749999</v>
+        <v>87.357345306</v>
       </c>
       <c r="I3" t="n">
-        <v>923.4234136169</v>
+        <v>956.5898500228</v>
       </c>
     </row>
     <row r="4">
@@ -550,28 +550,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.67356023953077</v>
+        <v>20.44353202546449</v>
       </c>
       <c r="C4" t="n">
-        <v>14.01033428291243</v>
+        <v>13.8962438432615</v>
       </c>
       <c r="D4" t="n">
-        <v>1.665806489154584</v>
+        <v>1.636822045550746</v>
       </c>
       <c r="E4" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="F4" t="n">
-        <v>1.623305508828584</v>
+        <v>1.588645662603224</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04127360722260458</v>
+        <v>0.04006333600754215</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08782750417687997</v>
+        <v>0.08032735659763633</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8708988886005156</v>
+        <v>0.8796093073948215</v>
       </c>
     </row>
     <row r="5">
@@ -621,25 +621,25 @@
         <v>44074</v>
       </c>
       <c r="C6" t="n">
-        <v>18.10085622761549</v>
+        <v>17.877700496079</v>
       </c>
       <c r="D6" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E6" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F6" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G6" t="n">
-        <v>2.044697358766923</v>
+        <v>1.984740438997757</v>
       </c>
       <c r="H6" t="n">
-        <v>3.39406295289443</v>
+        <v>3.104222392371559</v>
       </c>
       <c r="I6" t="n">
-        <v>12.66209591595414</v>
+        <v>12.78873766470969</v>
       </c>
     </row>
     <row r="7">
@@ -650,25 +650,25 @@
         <v>44075</v>
       </c>
       <c r="C7" t="n">
-        <v>18.15429709404789</v>
+        <v>17.93009384859944</v>
       </c>
       <c r="D7" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E7" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F7" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G7" t="n">
-        <v>2.061175779587304</v>
+        <v>2.000735660996164</v>
       </c>
       <c r="H7" t="n">
-        <v>3.403853518652897</v>
+        <v>3.113176879628639</v>
       </c>
       <c r="I7" t="n">
-        <v>12.68926779580769</v>
+        <v>12.81618130797464</v>
       </c>
     </row>
     <row r="8">
@@ -679,25 +679,25 @@
         <v>44076</v>
       </c>
       <c r="C8" t="n">
-        <v>18.10444136981157</v>
+        <v>17.8828274762974</v>
       </c>
       <c r="D8" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E8" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F8" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G8" t="n">
-        <v>2.077654199994949</v>
+        <v>2.016730882593937</v>
       </c>
       <c r="H8" t="n">
-        <v>3.364691253862477</v>
+        <v>3.077358928993772</v>
       </c>
       <c r="I8" t="n">
-        <v>12.66209591595414</v>
+        <v>12.78873766470969</v>
       </c>
     </row>
     <row r="9">
@@ -708,25 +708,25 @@
         <v>44077</v>
       </c>
       <c r="C9" t="n">
-        <v>18.40664624439594</v>
+        <v>18.20128958779564</v>
       </c>
       <c r="D9" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E9" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F9" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G9" t="n">
-        <v>2.041950955572017</v>
+        <v>1.982074568931778</v>
       </c>
       <c r="H9" t="n">
-        <v>3.240677415359481</v>
+        <v>2.963935418650024</v>
       </c>
       <c r="I9" t="n">
-        <v>13.12401787346444</v>
+        <v>13.25527960021384</v>
       </c>
     </row>
     <row r="10">
@@ -737,25 +737,25 @@
         <v>44078</v>
       </c>
       <c r="C10" t="n">
-        <v>18.01233884046443</v>
+        <v>17.81042117741395</v>
       </c>
       <c r="D10" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E10" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F10" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965051659098131</v>
+        <v>1.907430200273601</v>
       </c>
       <c r="H10" t="n">
-        <v>3.194988106437324</v>
+        <v>2.922147809576011</v>
       </c>
       <c r="I10" t="n">
-        <v>12.85229907492897</v>
+        <v>12.98084316756434</v>
       </c>
     </row>
     <row r="11">
@@ -766,25 +766,25 @@
         <v>44081</v>
       </c>
       <c r="C11" t="n">
-        <v>17.55035355649527</v>
+        <v>17.35788532990159</v>
       </c>
       <c r="D11" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E11" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F11" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G11" t="n">
-        <v>1.892271968035709</v>
+        <v>1.836784637315343</v>
       </c>
       <c r="H11" t="n">
-        <v>3.077501312066065</v>
+        <v>2.814693957671409</v>
       </c>
       <c r="I11" t="n">
-        <v>12.5805802763935</v>
+        <v>12.70640673491484</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +795,25 @@
         <v>44082</v>
       </c>
       <c r="C12" t="n">
-        <v>17.69942785407839</v>
+        <v>17.50811393860354</v>
       </c>
       <c r="D12" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E12" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F12" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G12" t="n">
-        <v>1.90875038885609</v>
+        <v>1.85277985931375</v>
       </c>
       <c r="H12" t="n">
-        <v>3.074237789561059</v>
+        <v>2.8117091280502</v>
       </c>
       <c r="I12" t="n">
-        <v>12.71643967566123</v>
+        <v>12.84362495123959</v>
       </c>
     </row>
     <row r="13">
@@ -824,25 +824,25 @@
         <v>44083</v>
       </c>
       <c r="C13" t="n">
-        <v>17.50695246427822</v>
+        <v>17.32429881534323</v>
       </c>
       <c r="D13" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E13" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F13" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G13" t="n">
-        <v>1.90875038885609</v>
+        <v>1.85277985931375</v>
       </c>
       <c r="H13" t="n">
-        <v>2.963278039321536</v>
+        <v>2.710224934584742</v>
       </c>
       <c r="I13" t="n">
-        <v>12.63492403610059</v>
+        <v>12.76129402144474</v>
       </c>
     </row>
     <row r="14">
@@ -853,25 +853,25 @@
         <v>44084</v>
       </c>
       <c r="C14" t="n">
-        <v>17.1300905273715</v>
+        <v>16.95195238362055</v>
       </c>
       <c r="D14" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E14" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F14" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G14" t="n">
-        <v>1.78516223394144</v>
+        <v>1.732815695527599</v>
       </c>
       <c r="H14" t="n">
-        <v>2.927379296157847</v>
+        <v>2.67739181276781</v>
       </c>
       <c r="I14" t="n">
-        <v>12.41754899727222</v>
+        <v>12.54174487532514</v>
       </c>
     </row>
     <row r="15">
@@ -882,25 +882,25 @@
         <v>44085</v>
       </c>
       <c r="C15" t="n">
-        <v>17.11967710169642</v>
+        <v>16.93534479728039</v>
       </c>
       <c r="D15" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E15" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F15" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G15" t="n">
-        <v>1.797521049763094</v>
+        <v>1.744812112226721</v>
       </c>
       <c r="H15" t="n">
-        <v>2.986122694221752</v>
+        <v>2.731118739523385</v>
       </c>
       <c r="I15" t="n">
-        <v>12.33603335771157</v>
+        <v>12.45941394553029</v>
       </c>
     </row>
     <row r="16">
@@ -911,25 +911,25 @@
         <v>44088</v>
       </c>
       <c r="C16" t="n">
-        <v>17.21217835486216</v>
+        <v>17.02833920814043</v>
       </c>
       <c r="D16" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E16" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F16" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G16" t="n">
-        <v>1.808506663368191</v>
+        <v>1.755475593291903</v>
       </c>
       <c r="H16" t="n">
-        <v>2.986122694221752</v>
+        <v>2.731118739523385</v>
       </c>
       <c r="I16" t="n">
-        <v>12.41754899727222</v>
+        <v>12.54174487532514</v>
       </c>
     </row>
     <row r="17">
@@ -940,25 +940,25 @@
         <v>44089</v>
       </c>
       <c r="C17" t="n">
-        <v>17.1879015661633</v>
+        <v>17.00025828476484</v>
       </c>
       <c r="D17" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E17" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F17" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G17" t="n">
-        <v>1.796147847959273</v>
+        <v>1.743479176993414</v>
       </c>
       <c r="H17" t="n">
-        <v>3.028548480638902</v>
+        <v>2.769921518976187</v>
       </c>
       <c r="I17" t="n">
-        <v>12.36320523756512</v>
+        <v>12.48685758879524</v>
       </c>
     </row>
     <row r="18">
@@ -969,25 +969,25 @@
         <v>44090</v>
       </c>
       <c r="C18" t="n">
-        <v>17.1949925390951</v>
+        <v>17.00802685988669</v>
       </c>
       <c r="D18" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E18" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F18" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G18" t="n">
-        <v>1.772803418532522</v>
+        <v>1.72081927922911</v>
       </c>
       <c r="H18" t="n">
-        <v>3.031812003143909</v>
+        <v>2.772906348597397</v>
       </c>
       <c r="I18" t="n">
-        <v>12.39037711741867</v>
+        <v>12.51430123206019</v>
       </c>
     </row>
     <row r="19">
@@ -998,25 +998,25 @@
         <v>44091</v>
       </c>
       <c r="C19" t="n">
-        <v>17.1191478602942</v>
+        <v>16.93065161204964</v>
       </c>
       <c r="D19" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E19" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F19" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G19" t="n">
-        <v>1.768683813533795</v>
+        <v>1.716820473929825</v>
       </c>
       <c r="H19" t="n">
-        <v>3.041602568902376</v>
+        <v>2.781860835854477</v>
       </c>
       <c r="I19" t="n">
-        <v>12.30886147785803</v>
+        <v>12.43197030226534</v>
       </c>
     </row>
     <row r="20">
@@ -1027,25 +1027,25 @@
         <v>44092</v>
       </c>
       <c r="C20" t="n">
-        <v>17.44814323440607</v>
+        <v>17.25452212036191</v>
       </c>
       <c r="D20" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E20" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F20" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G20" t="n">
-        <v>1.808506663368191</v>
+        <v>1.755475593291903</v>
       </c>
       <c r="H20" t="n">
-        <v>3.113400054351479</v>
+        <v>2.847527078685067</v>
       </c>
       <c r="I20" t="n">
-        <v>12.52623651668641</v>
+        <v>12.65151944838494</v>
       </c>
     </row>
     <row r="21">
@@ -1056,25 +1056,25 @@
         <v>44095</v>
       </c>
       <c r="C21" t="n">
-        <v>17.37383256792643</v>
+        <v>17.17955088365971</v>
       </c>
       <c r="D21" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E21" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F21" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G21" t="n">
-        <v>1.822238680580929</v>
+        <v>1.768804944823697</v>
       </c>
       <c r="H21" t="n">
-        <v>3.106873010219742</v>
+        <v>2.841557420245923</v>
       </c>
       <c r="I21" t="n">
-        <v>12.44472087712576</v>
+        <v>12.56918851859009</v>
       </c>
     </row>
     <row r="22">
@@ -1085,25 +1085,25 @@
         <v>44096</v>
       </c>
       <c r="C22" t="n">
-        <v>17.09692221193568</v>
+        <v>16.90529366816023</v>
       </c>
       <c r="D22" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E22" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F22" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G22" t="n">
-        <v>1.771430217141437</v>
+        <v>1.719486344396437</v>
       </c>
       <c r="H22" t="n">
-        <v>3.070974267934328</v>
+        <v>2.808724299232265</v>
       </c>
       <c r="I22" t="n">
-        <v>12.25451772685992</v>
+        <v>12.37708302453153</v>
       </c>
     </row>
     <row r="23">
@@ -1114,25 +1114,25 @@
         <v>44097</v>
       </c>
       <c r="C23" t="n">
-        <v>17.00983748925965</v>
+        <v>16.81322394830222</v>
       </c>
       <c r="D23" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E23" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F23" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G23" t="n">
-        <v>1.781042628942712</v>
+        <v>1.728816890228314</v>
       </c>
       <c r="H23" t="n">
-        <v>3.110136532724749</v>
+        <v>2.844542249867132</v>
       </c>
       <c r="I23" t="n">
-        <v>12.11865832759218</v>
+        <v>12.23986480820678</v>
       </c>
     </row>
     <row r="24">
@@ -1143,25 +1143,25 @@
         <v>44098</v>
       </c>
       <c r="C24" t="n">
-        <v>16.66765668236427</v>
+        <v>16.47927013881194</v>
       </c>
       <c r="D24" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E24" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F24" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G24" t="n">
-        <v>1.73023416550322</v>
+        <v>1.679498289801054</v>
       </c>
       <c r="H24" t="n">
-        <v>3.008967348243693</v>
+        <v>2.752012543658754</v>
       </c>
       <c r="I24" t="n">
-        <v>11.92845516861735</v>
+        <v>12.04775930535213</v>
       </c>
     </row>
     <row r="25">
@@ -1172,25 +1172,25 @@
         <v>44099</v>
       </c>
       <c r="C25" t="n">
-        <v>16.67345898764404</v>
+        <v>16.48236980506946</v>
       </c>
       <c r="D25" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E25" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F25" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G25" t="n">
-        <v>1.73710017410959</v>
+        <v>1.686162965566951</v>
       </c>
       <c r="H25" t="n">
-        <v>3.035075524770639</v>
+        <v>2.775891177415333</v>
       </c>
       <c r="I25" t="n">
-        <v>11.90128328876381</v>
+        <v>12.02031566208718</v>
       </c>
     </row>
     <row r="26">
@@ -1201,25 +1201,25 @@
         <v>44102</v>
       </c>
       <c r="C26" t="n">
-        <v>16.85184605185154</v>
+        <v>16.65360769354493</v>
       </c>
       <c r="D26" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E26" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F26" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G26" t="n">
-        <v>1.742592980912138</v>
+        <v>1.691494706099542</v>
       </c>
       <c r="H26" t="n">
-        <v>3.126454142614953</v>
+        <v>2.859466395563357</v>
       </c>
       <c r="I26" t="n">
-        <v>11.98279892832445</v>
+        <v>12.10264659188203</v>
       </c>
     </row>
     <row r="27">
@@ -1230,25 +1230,25 @@
         <v>44103</v>
       </c>
       <c r="C27" t="n">
-        <v>16.83794800318647</v>
+        <v>16.64502862666409</v>
       </c>
       <c r="D27" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E27" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F27" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G27" t="n">
-        <v>1.770057015337616</v>
+        <v>1.718153409163131</v>
       </c>
       <c r="H27" t="n">
-        <v>3.057920179670855</v>
+        <v>2.796784982353975</v>
       </c>
       <c r="I27" t="n">
-        <v>12.009970808178</v>
+        <v>12.13009023514698</v>
       </c>
     </row>
     <row r="28">
@@ -1259,25 +1259,25 @@
         <v>44104</v>
       </c>
       <c r="C28" t="n">
-        <v>16.7810081559997</v>
+        <v>16.58417396395973</v>
       </c>
       <c r="D28" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E28" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F28" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G28" t="n">
-        <v>1.752205392713414</v>
+        <v>1.700825251931418</v>
       </c>
       <c r="H28" t="n">
-        <v>3.100345966088006</v>
+        <v>2.835587761806778</v>
       </c>
       <c r="I28" t="n">
-        <v>11.92845679719828</v>
+        <v>12.04776095022154</v>
       </c>
     </row>
     <row r="29">
@@ -1288,25 +1288,25 @@
         <v>44113</v>
       </c>
       <c r="C29" t="n">
-        <v>17.07268480265934</v>
+        <v>16.87239848528584</v>
       </c>
       <c r="D29" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E29" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F29" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G29" t="n">
-        <v>1.811253066975833</v>
+        <v>1.758141463758515</v>
       </c>
       <c r="H29" t="n">
-        <v>3.142771753383432</v>
+        <v>2.874390542062855</v>
       </c>
       <c r="I29" t="n">
-        <v>12.11865998230007</v>
+        <v>12.23986647946446</v>
       </c>
     </row>
     <row r="30">
@@ -1317,25 +1317,25 @@
         <v>44116</v>
       </c>
       <c r="C30" t="n">
-        <v>17.51523767661628</v>
+        <v>17.30372224208789</v>
       </c>
       <c r="D30" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E30" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F30" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G30" t="n">
-        <v>1.868927539021695</v>
+        <v>1.814124739951672</v>
       </c>
       <c r="H30" t="n">
-        <v>3.283103201776632</v>
+        <v>3.002738198102827</v>
       </c>
       <c r="I30" t="n">
-        <v>12.36320693581795</v>
+        <v>12.48685930403339</v>
       </c>
     </row>
     <row r="31">
@@ -1346,25 +1346,25 @@
         <v>44117</v>
       </c>
       <c r="C31" t="n">
-        <v>17.35987341214446</v>
+        <v>17.15300209077954</v>
       </c>
       <c r="D31" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E31" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F31" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G31" t="n">
-        <v>1.853822320005135</v>
+        <v>1.799462453186572</v>
       </c>
       <c r="H31" t="n">
-        <v>3.224359804591002</v>
+        <v>2.949011272150526</v>
       </c>
       <c r="I31" t="n">
-        <v>12.28169128754832</v>
+        <v>12.40452836544244</v>
       </c>
     </row>
     <row r="32">
@@ -1375,25 +1375,25 @@
         <v>44118</v>
       </c>
       <c r="C32" t="n">
-        <v>17.74297548613838</v>
+        <v>17.52628178738115</v>
       </c>
       <c r="D32" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E32" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F32" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G32" t="n">
-        <v>1.892271968035709</v>
+        <v>1.836784637315343</v>
       </c>
       <c r="H32" t="n">
-        <v>3.351637165599004</v>
+        <v>3.065419612115482</v>
       </c>
       <c r="I32" t="n">
-        <v>12.49906635250367</v>
+        <v>12.62407753795032</v>
       </c>
     </row>
     <row r="33">
@@ -1404,25 +1404,25 @@
         <v>44119</v>
       </c>
       <c r="C33" t="n">
-        <v>17.49725471035033</v>
+        <v>17.28825010135971</v>
       </c>
       <c r="D33" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E33" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F33" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G33" t="n">
-        <v>1.840090302792395</v>
+        <v>1.786133101654777</v>
       </c>
       <c r="H33" t="n">
-        <v>3.266785591886428</v>
+        <v>2.987814052406602</v>
       </c>
       <c r="I33" t="n">
-        <v>12.3903788156715</v>
+        <v>12.51430294729834</v>
       </c>
     </row>
     <row r="34">
@@ -1433,25 +1433,25 @@
         <v>44120</v>
       </c>
       <c r="C34" t="n">
-        <v>17.51984880701159</v>
+        <v>17.31723017217051</v>
       </c>
       <c r="D34" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E34" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F34" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G34" t="n">
-        <v>1.849702715006407</v>
+        <v>1.795463647887287</v>
       </c>
       <c r="H34" t="n">
-        <v>3.198251628064055</v>
+        <v>2.925132638393947</v>
       </c>
       <c r="I34" t="n">
-        <v>12.47189446394113</v>
+        <v>12.59663388588928</v>
       </c>
     </row>
     <row r="35">
@@ -1462,25 +1462,25 @@
         <v>44123</v>
       </c>
       <c r="C35" t="n">
-        <v>17.20764132565762</v>
+        <v>17.00712278479267</v>
       </c>
       <c r="D35" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E35" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F35" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G35" t="n">
-        <v>1.827731487383478</v>
+        <v>1.774136685356289</v>
       </c>
       <c r="H35" t="n">
-        <v>3.152562319141899</v>
+        <v>2.883345029319936</v>
       </c>
       <c r="I35" t="n">
-        <v>12.22734751913224</v>
+        <v>12.34964107011645</v>
       </c>
     </row>
     <row r="36">
@@ -1491,25 +1491,25 @@
         <v>44124</v>
       </c>
       <c r="C36" t="n">
-        <v>17.35961072356994</v>
+        <v>17.15671412258272</v>
       </c>
       <c r="D36" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E36" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F36" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G36" t="n">
-        <v>1.831851092382205</v>
+        <v>1.778135490655574</v>
       </c>
       <c r="H36" t="n">
-        <v>3.191724583932319</v>
+        <v>2.919162979954803</v>
       </c>
       <c r="I36" t="n">
-        <v>12.33603504725542</v>
+        <v>12.45941565197234</v>
       </c>
     </row>
     <row r="37">
@@ -1520,25 +1520,25 @@
         <v>44125</v>
       </c>
       <c r="C37" t="n">
-        <v>17.18269048097167</v>
+        <v>16.98976908439679</v>
       </c>
       <c r="D37" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E37" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F37" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G37" t="n">
-        <v>1.786535435745261</v>
+        <v>1.734148630760905</v>
       </c>
       <c r="H37" t="n">
-        <v>3.087291877824532</v>
+        <v>2.823648444928489</v>
       </c>
       <c r="I37" t="n">
-        <v>12.30886316740187</v>
+        <v>12.43197200870739</v>
       </c>
     </row>
     <row r="38">
@@ -1549,25 +1549,25 @@
         <v>44126</v>
       </c>
       <c r="C38" t="n">
-        <v>17.07692750216987</v>
+        <v>16.88228430603926</v>
       </c>
       <c r="D38" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E38" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F38" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G38" t="n">
-        <v>1.779669427138891</v>
+        <v>1.727483954995007</v>
       </c>
       <c r="H38" t="n">
-        <v>3.097082444461275</v>
+        <v>2.832602932988843</v>
       </c>
       <c r="I38" t="n">
-        <v>12.2001756305697</v>
+        <v>12.32219741805541</v>
       </c>
     </row>
     <row r="39">
@@ -1578,25 +1578,25 @@
         <v>44127</v>
       </c>
       <c r="C39" t="n">
-        <v>17.05502346479344</v>
+        <v>16.85906850395094</v>
       </c>
       <c r="D39" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E39" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F39" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G39" t="n">
-        <v>1.81537267197456</v>
+        <v>1.7621402690578</v>
       </c>
       <c r="H39" t="n">
-        <v>3.093818921956269</v>
+        <v>2.829618103367634</v>
       </c>
       <c r="I39" t="n">
-        <v>12.14583187086261</v>
+        <v>12.26731013152551</v>
       </c>
     </row>
     <row r="40">
@@ -1607,25 +1607,25 @@
         <v>44130</v>
       </c>
       <c r="C40" t="n">
-        <v>16.97169377260101</v>
+        <v>16.7794927209053</v>
       </c>
       <c r="D40" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E40" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F40" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G40" t="n">
-        <v>1.801640654761821</v>
+        <v>1.748810917526006</v>
       </c>
       <c r="H40" t="n">
-        <v>3.051393135539119</v>
+        <v>2.790815323914831</v>
       </c>
       <c r="I40" t="n">
-        <v>12.11865998230007</v>
+        <v>12.23986647946446</v>
       </c>
     </row>
     <row r="41">
@@ -1636,25 +1636,25 @@
         <v>44131</v>
       </c>
       <c r="C41" t="n">
-        <v>16.92662345192431</v>
+        <v>16.73324095448507</v>
       </c>
       <c r="D41" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E41" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F41" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G41" t="n">
-        <v>1.804387058369463</v>
+        <v>1.751476787992618</v>
       </c>
       <c r="H41" t="n">
-        <v>3.057920179670855</v>
+        <v>2.796784982353975</v>
       </c>
       <c r="I41" t="n">
-        <v>12.06431621388399</v>
+        <v>12.18497918413847</v>
       </c>
     </row>
     <row r="42">
@@ -1665,25 +1665,25 @@
         <v>44132</v>
       </c>
       <c r="C42" t="n">
-        <v>16.98987223719499</v>
+        <v>16.79314166938761</v>
       </c>
       <c r="D42" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E42" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F42" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G42" t="n">
-        <v>1.794774646155451</v>
+        <v>1.742146241760108</v>
       </c>
       <c r="H42" t="n">
-        <v>3.103609488593011</v>
+        <v>2.838572591427987</v>
       </c>
       <c r="I42" t="n">
-        <v>12.09148810244653</v>
+        <v>12.21242283619951</v>
       </c>
     </row>
     <row r="43">
@@ -1694,25 +1694,25 @@
         <v>44133</v>
       </c>
       <c r="C43" t="n">
-        <v>15.26193845786796</v>
+        <v>15.05486706629092</v>
       </c>
       <c r="D43" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E43" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F43" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G43" t="n">
-        <v>1.768683813533795</v>
+        <v>1.716820473929825</v>
       </c>
       <c r="H43" t="n">
-        <v>3.041602568902376</v>
+        <v>2.781860835854477</v>
       </c>
       <c r="I43" t="n">
-        <v>10.45165207543179</v>
+        <v>10.55618575650662</v>
       </c>
     </row>
     <row r="44">
@@ -1723,25 +1723,25 @@
         <v>44134</v>
       </c>
       <c r="C44" t="n">
-        <v>14.85197960790592</v>
+        <v>14.67494421405891</v>
       </c>
       <c r="D44" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E44" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F44" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G44" t="n">
-        <v>1.956597688076535</v>
+        <v>1.899224126115616</v>
       </c>
       <c r="H44" t="n">
-        <v>2.606311095227186</v>
+        <v>2.383741661712874</v>
       </c>
       <c r="I44" t="n">
-        <v>10.2890708246022</v>
+        <v>10.39197842623042</v>
       </c>
     </row>
     <row r="45">
@@ -1752,25 +1752,25 @@
         <v>44137</v>
       </c>
       <c r="C45" t="n">
-        <v>15.12026094299063</v>
+        <v>14.95793677971739</v>
       </c>
       <c r="D45" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E45" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F45" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G45" t="n">
-        <v>1.916272096814643</v>
+        <v>1.860081007276631</v>
       </c>
       <c r="H45" t="n">
-        <v>2.496851945523703</v>
+        <v>2.283629922986951</v>
       </c>
       <c r="I45" t="n">
-        <v>10.70713690065228</v>
+        <v>10.81422584945381</v>
       </c>
     </row>
     <row r="46">
@@ -1781,25 +1781,25 @@
         <v>44138</v>
       </c>
       <c r="C46" t="n">
-        <v>15.31387875899514</v>
+        <v>15.13791466002863</v>
       </c>
       <c r="D46" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E46" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F46" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G46" t="n">
-        <v>1.967888853910525</v>
+        <v>1.910184199662963</v>
       </c>
       <c r="H46" t="n">
-        <v>2.638853004432331</v>
+        <v>2.413504610911854</v>
       </c>
       <c r="I46" t="n">
-        <v>10.70713690065228</v>
+        <v>10.81422584945381</v>
       </c>
     </row>
     <row r="47">
@@ -1810,25 +1810,25 @@
         <v>44139</v>
       </c>
       <c r="C47" t="n">
-        <v>15.24977815001521</v>
+        <v>15.07643917359403</v>
       </c>
       <c r="D47" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E47" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F47" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G47" t="n">
-        <v>1.956597688076535</v>
+        <v>1.899224126115616</v>
       </c>
       <c r="H47" t="n">
-        <v>2.609269450529629</v>
+        <v>2.386447384294302</v>
       </c>
       <c r="I47" t="n">
-        <v>10.68391101140905</v>
+        <v>10.79076766318411</v>
       </c>
     </row>
     <row r="48">
@@ -1839,25 +1839,25 @@
         <v>44140</v>
       </c>
       <c r="C48" t="n">
-        <v>15.38193654770699</v>
+        <v>15.20771214743329</v>
       </c>
       <c r="D48" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E48" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F48" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G48" t="n">
-        <v>1.98401909016764</v>
+        <v>1.925841446958177</v>
       </c>
       <c r="H48" t="n">
-        <v>2.621102871739399</v>
+        <v>2.397270274620013</v>
       </c>
       <c r="I48" t="n">
-        <v>10.77681458579995</v>
+        <v>10.8846004258551</v>
       </c>
     </row>
     <row r="49">
@@ -1868,25 +1868,25 @@
         <v>44141</v>
       </c>
       <c r="C49" t="n">
-        <v>15.39100735486144</v>
+        <v>15.22016840542131</v>
       </c>
       <c r="D49" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E49" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F49" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G49" t="n">
-        <v>1.979180019331779</v>
+        <v>1.921144272809676</v>
       </c>
       <c r="H49" t="n">
-        <v>2.588560962534254</v>
+        <v>2.367507325421033</v>
       </c>
       <c r="I49" t="n">
-        <v>10.82326637299541</v>
+        <v>10.9315168071906</v>
       </c>
     </row>
     <row r="50">
@@ -1897,25 +1897,25 @@
         <v>44144</v>
       </c>
       <c r="C50" t="n">
-        <v>15.57506394551455</v>
+        <v>15.3999930254542</v>
       </c>
       <c r="D50" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E50" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F50" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G50" t="n">
-        <v>2.025957705179065</v>
+        <v>1.966550290646873</v>
       </c>
       <c r="H50" t="n">
-        <v>2.63293629294917</v>
+        <v>2.408093164945724</v>
       </c>
       <c r="I50" t="n">
-        <v>10.91616994738631</v>
+        <v>11.0253495698616</v>
       </c>
     </row>
     <row r="51">
@@ -1926,25 +1926,25 @@
         <v>44145</v>
       </c>
       <c r="C51" t="n">
-        <v>15.44354223441548</v>
+        <v>15.27124672824756</v>
       </c>
       <c r="D51" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E51" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F51" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G51" t="n">
-        <v>1.993697232252098</v>
+        <v>1.935235795655812</v>
       </c>
       <c r="H51" t="n">
-        <v>2.603352739924742</v>
+        <v>2.381035939131446</v>
       </c>
       <c r="I51" t="n">
-        <v>10.84649226223864</v>
+        <v>10.9549749934603</v>
       </c>
     </row>
     <row r="52">
@@ -1955,25 +1955,25 @@
         <v>44146</v>
       </c>
       <c r="C52" t="n">
-        <v>15.39056640080685</v>
+        <v>15.22198081023632</v>
       </c>
       <c r="D52" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E52" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F52" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G52" t="n">
-        <v>1.979180019331779</v>
+        <v>1.921144272809676</v>
       </c>
       <c r="H52" t="n">
-        <v>2.564894119236437</v>
+        <v>2.345861543966338</v>
       </c>
       <c r="I52" t="n">
-        <v>10.84649226223864</v>
+        <v>10.9549749934603</v>
       </c>
     </row>
     <row r="53">
@@ -1984,25 +1984,25 @@
         <v>44147</v>
       </c>
       <c r="C53" t="n">
-        <v>15.2690693546299</v>
+        <v>15.09815259705804</v>
       </c>
       <c r="D53" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E53" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F53" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G53" t="n">
-        <v>1.950145593491142</v>
+        <v>1.892961227117404</v>
       </c>
       <c r="H53" t="n">
-        <v>2.588560962534254</v>
+        <v>2.367507325421033</v>
       </c>
       <c r="I53" t="n">
-        <v>10.7303627986045</v>
+        <v>10.8376840445196</v>
       </c>
     </row>
     <row r="54">
@@ -2013,25 +2013,25 @@
         <v>44148</v>
       </c>
       <c r="C54" t="n">
-        <v>15.16154038460221</v>
+        <v>14.98954171700453</v>
       </c>
       <c r="D54" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E54" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F54" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G54" t="n">
-        <v>1.964662806411461</v>
+        <v>1.90705274996354</v>
       </c>
       <c r="H54" t="n">
-        <v>2.582644251929368</v>
+        <v>2.362095880258178</v>
       </c>
       <c r="I54" t="n">
-        <v>10.61423332626138</v>
+        <v>10.72039308678281</v>
       </c>
     </row>
     <row r="55">
@@ -2042,25 +2042,25 @@
         <v>44151</v>
       </c>
       <c r="C55" t="n">
-        <v>15.69746350744679</v>
+        <v>15.51723051104257</v>
       </c>
       <c r="D55" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E55" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F55" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G55" t="n">
-        <v>2.001762350174288</v>
+        <v>1.943064419103102</v>
       </c>
       <c r="H55" t="n">
-        <v>2.709853533447507</v>
+        <v>2.478441954472668</v>
       </c>
       <c r="I55" t="n">
-        <v>10.98584762382499</v>
+        <v>11.0957241374668</v>
       </c>
     </row>
     <row r="56">
@@ -2071,25 +2071,25 @@
         <v>44152</v>
       </c>
       <c r="C56" t="n">
-        <v>15.62788713362031</v>
+        <v>15.44853116623464</v>
       </c>
       <c r="D56" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E56" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F56" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G56" t="n">
-        <v>1.990471184753034</v>
+        <v>1.932104345956389</v>
       </c>
       <c r="H56" t="n">
-        <v>2.698020112237737</v>
+        <v>2.467619064146957</v>
       </c>
       <c r="I56" t="n">
-        <v>10.93939583662954</v>
+        <v>11.0488077561313</v>
       </c>
     </row>
     <row r="57">
@@ -2100,25 +2100,25 @@
         <v>44153</v>
       </c>
       <c r="C57" t="n">
-        <v>15.58422044857833</v>
+        <v>15.40655864820967</v>
       </c>
       <c r="D57" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E57" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F57" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G57" t="n">
-        <v>1.993697232252098</v>
+        <v>1.935235795655812</v>
       </c>
       <c r="H57" t="n">
-        <v>2.674353268939919</v>
+        <v>2.445973282692261</v>
       </c>
       <c r="I57" t="n">
-        <v>10.91616994738631</v>
+        <v>11.0253495698616</v>
       </c>
     </row>
     <row r="58">
@@ -2129,25 +2129,25 @@
         <v>44154</v>
       </c>
       <c r="C58" t="n">
-        <v>15.56626770283027</v>
+        <v>15.38697385833045</v>
       </c>
       <c r="D58" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E58" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F58" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G58" t="n">
-        <v>2.016279563094607</v>
+        <v>1.957155941949238</v>
       </c>
       <c r="H58" t="n">
-        <v>2.680269979544805</v>
+        <v>2.451384727855116</v>
       </c>
       <c r="I58" t="n">
-        <v>10.86971816019086</v>
+        <v>10.9784331885261</v>
       </c>
     </row>
     <row r="59">
@@ -2158,25 +2158,25 @@
         <v>44155</v>
       </c>
       <c r="C59" t="n">
-        <v>15.57810112404004</v>
+        <v>15.39779674865616</v>
       </c>
       <c r="D59" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E59" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F59" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G59" t="n">
-        <v>2.016279563094607</v>
+        <v>1.957155941949238</v>
       </c>
       <c r="H59" t="n">
-        <v>2.692103400754576</v>
+        <v>2.462207618180827</v>
       </c>
       <c r="I59" t="n">
-        <v>10.86971816019086</v>
+        <v>10.9784331885261</v>
       </c>
     </row>
     <row r="60">
@@ -2187,25 +2187,25 @@
         <v>44158</v>
       </c>
       <c r="C60" t="n">
-        <v>15.72165886245157</v>
+        <v>15.54071638258634</v>
       </c>
       <c r="D60" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E60" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F60" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G60" t="n">
-        <v>2.025957705179065</v>
+        <v>1.966550290646873</v>
       </c>
       <c r="H60" t="n">
-        <v>2.709853533447507</v>
+        <v>2.478441954472668</v>
       </c>
       <c r="I60" t="n">
-        <v>10.98584762382499</v>
+        <v>11.0957241374668</v>
       </c>
     </row>
     <row r="61">
@@ -2216,25 +2216,25 @@
         <v>44159</v>
       </c>
       <c r="C61" t="n">
-        <v>15.69825971093764</v>
+        <v>15.51949632784901</v>
       </c>
       <c r="D61" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E61" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F61" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G61" t="n">
-        <v>2.029183752265394</v>
+        <v>1.969681739945662</v>
       </c>
       <c r="H61" t="n">
-        <v>2.683228334847247</v>
+        <v>2.454090450436544</v>
       </c>
       <c r="I61" t="n">
-        <v>10.98584762382499</v>
+        <v>11.0957241374668</v>
       </c>
     </row>
     <row r="62">
@@ -2245,25 +2245,25 @@
         <v>44160</v>
       </c>
       <c r="C62" t="n">
-        <v>15.55319025180152</v>
+        <v>15.37668619226703</v>
       </c>
       <c r="D62" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E62" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F62" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G62" t="n">
-        <v>2.006601421422885</v>
+        <v>1.947761593652236</v>
       </c>
       <c r="H62" t="n">
-        <v>2.653644780944545</v>
+        <v>2.427033223818992</v>
       </c>
       <c r="I62" t="n">
-        <v>10.89294404943409</v>
+        <v>11.0018913747958</v>
       </c>
     </row>
     <row r="63">
@@ -2274,25 +2274,25 @@
         <v>44161</v>
       </c>
       <c r="C63" t="n">
-        <v>15.77387658607935</v>
+        <v>15.60185957158989</v>
       </c>
       <c r="D63" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E63" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F63" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G63" t="n">
-        <v>2.027570728928597</v>
+        <v>1.968116015496584</v>
       </c>
       <c r="H63" t="n">
-        <v>2.621102871739399</v>
+        <v>2.397270274620013</v>
       </c>
       <c r="I63" t="n">
-        <v>11.12520298541135</v>
+        <v>11.23647328147329</v>
       </c>
     </row>
     <row r="64">
@@ -2303,25 +2303,25 @@
         <v>44162</v>
       </c>
       <c r="C64" t="n">
-        <v>16.03666605362271</v>
+        <v>15.85694915918617</v>
       </c>
       <c r="D64" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E64" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F64" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G64" t="n">
-        <v>2.053379107270171</v>
+        <v>1.993167611489433</v>
       </c>
       <c r="H64" t="n">
-        <v>2.718728599354836</v>
+        <v>2.486559122216951</v>
       </c>
       <c r="I64" t="n">
-        <v>11.26455834699771</v>
+        <v>11.37722242547979</v>
       </c>
     </row>
     <row r="65">
@@ -2332,25 +2332,25 @@
         <v>44165</v>
       </c>
       <c r="C65" t="n">
-        <v>16.11524128365413</v>
+        <v>15.94201812510785</v>
       </c>
       <c r="D65" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E65" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F65" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G65" t="n">
-        <v>2.051766083520638</v>
+        <v>1.991601886639722</v>
       </c>
       <c r="H65" t="n">
-        <v>2.659561491549431</v>
+        <v>2.432444668981848</v>
       </c>
       <c r="I65" t="n">
-        <v>11.40391370858406</v>
+        <v>11.51797156948628</v>
       </c>
     </row>
     <row r="66">
@@ -2361,25 +2361,25 @@
         <v>44166</v>
       </c>
       <c r="C66" t="n">
-        <v>16.18230025623275</v>
+        <v>16.00619934251934</v>
       </c>
       <c r="D66" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E66" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F66" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G66" t="n">
-        <v>2.063057248941893</v>
+        <v>2.002561959786435</v>
       </c>
       <c r="H66" t="n">
-        <v>2.692103400754576</v>
+        <v>2.462207618180827</v>
       </c>
       <c r="I66" t="n">
-        <v>11.42713960653628</v>
+        <v>11.54142976455208</v>
       </c>
     </row>
     <row r="67">
@@ -2390,25 +2390,25 @@
         <v>44167</v>
       </c>
       <c r="C67" t="n">
-        <v>16.17251393184456</v>
+        <v>15.99611839968596</v>
       </c>
       <c r="D67" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E67" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F67" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G67" t="n">
-        <v>2.082413533110808</v>
+        <v>2.021350657181705</v>
       </c>
       <c r="H67" t="n">
-        <v>2.68618669014969</v>
+        <v>2.456796173017972</v>
       </c>
       <c r="I67" t="n">
-        <v>11.40391370858406</v>
+        <v>11.51797156948628</v>
       </c>
     </row>
     <row r="68">
@@ -2419,25 +2419,25 @@
         <v>44168</v>
       </c>
       <c r="C68" t="n">
-        <v>15.93383226124086</v>
+        <v>15.76086218832873</v>
       </c>
       <c r="D68" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E68" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F68" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G68" t="n">
-        <v>2.056605154356499</v>
+        <v>1.996299060788223</v>
       </c>
       <c r="H68" t="n">
-        <v>2.635894649129888</v>
+        <v>2.410798888330425</v>
       </c>
       <c r="I68" t="n">
-        <v>11.24133245775448</v>
+        <v>11.35376423921008</v>
       </c>
     </row>
     <row r="69">
@@ -2448,25 +2448,25 @@
         <v>44169</v>
       </c>
       <c r="C69" t="n">
-        <v>15.91975599278787</v>
+        <v>15.74495825106822</v>
       </c>
       <c r="D69" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E69" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F69" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G69" t="n">
-        <v>2.04208794143618</v>
+        <v>1.982207537942087</v>
       </c>
       <c r="H69" t="n">
-        <v>2.659561491549431</v>
+        <v>2.432444668981848</v>
       </c>
       <c r="I69" t="n">
-        <v>11.21810655980225</v>
+        <v>11.33030604414429</v>
       </c>
     </row>
     <row r="70">
@@ -2477,25 +2477,25 @@
         <v>44172</v>
       </c>
       <c r="C70" t="n">
-        <v>15.7731161100673</v>
+        <v>15.59108044239106</v>
       </c>
       <c r="D70" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E70" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F70" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G70" t="n">
-        <v>2.045313988935245</v>
+        <v>1.98533898764151</v>
       </c>
       <c r="H70" t="n">
-        <v>2.718728599354836</v>
+        <v>2.486559122216951</v>
       </c>
       <c r="I70" t="n">
-        <v>11.00907352177722</v>
+        <v>11.11918233253259</v>
       </c>
     </row>
     <row r="71">
@@ -2506,25 +2506,25 @@
         <v>44173</v>
       </c>
       <c r="C71" t="n">
-        <v>15.78549866021741</v>
+        <v>15.60077751444532</v>
       </c>
       <c r="D71" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E71" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F71" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G71" t="n">
-        <v>2.016279563094607</v>
+        <v>1.957155941949238</v>
       </c>
       <c r="H71" t="n">
-        <v>2.760145575345585</v>
+        <v>2.524439239963487</v>
       </c>
       <c r="I71" t="n">
-        <v>11.00907352177722</v>
+        <v>11.11918233253259</v>
       </c>
     </row>
     <row r="72">
@@ -2535,25 +2535,25 @@
         <v>44174</v>
       </c>
       <c r="C72" t="n">
-        <v>15.54432892997575</v>
+        <v>15.36659175161267</v>
       </c>
       <c r="D72" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E72" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F72" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G72" t="n">
-        <v>1.971114900996854</v>
+        <v>1.913315648961752</v>
       </c>
       <c r="H72" t="n">
-        <v>2.680269979544805</v>
+        <v>2.451384727855116</v>
       </c>
       <c r="I72" t="n">
-        <v>10.89294404943409</v>
+        <v>11.0018913747958</v>
       </c>
     </row>
     <row r="73">
@@ -2564,25 +2564,25 @@
         <v>44175</v>
       </c>
       <c r="C73" t="n">
-        <v>15.47394260769859</v>
+        <v>15.29760386210511</v>
       </c>
       <c r="D73" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E73" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F73" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G73" t="n">
-        <v>1.967888853910525</v>
+        <v>1.910184199662963</v>
       </c>
       <c r="H73" t="n">
-        <v>2.659561491549431</v>
+        <v>2.432444668981848</v>
       </c>
       <c r="I73" t="n">
-        <v>10.84649226223864</v>
+        <v>10.9549749934603</v>
       </c>
     </row>
     <row r="74">
@@ -2593,25 +2593,25 @@
         <v>44176</v>
       </c>
       <c r="C74" t="n">
-        <v>15.45969995924844</v>
+        <v>15.28294943012325</v>
       </c>
       <c r="D74" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E74" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F74" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G74" t="n">
-        <v>1.938854428069887</v>
+        <v>1.882001153970691</v>
       </c>
       <c r="H74" t="n">
-        <v>2.674353268939919</v>
+        <v>2.445973282692261</v>
       </c>
       <c r="I74" t="n">
-        <v>10.84649226223864</v>
+        <v>10.9549749934603</v>
       </c>
     </row>
     <row r="75">
@@ -2622,25 +2622,25 @@
         <v>44179</v>
       </c>
       <c r="C75" t="n">
-        <v>15.38527076921354</v>
+        <v>15.211530182873</v>
       </c>
       <c r="D75" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E75" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F75" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G75" t="n">
-        <v>1.958210711826067</v>
+        <v>1.900789850965328</v>
       </c>
       <c r="H75" t="n">
-        <v>2.627019582344285</v>
+        <v>2.402681719782869</v>
       </c>
       <c r="I75" t="n">
-        <v>10.80004047504319</v>
+        <v>10.9080586121248</v>
       </c>
     </row>
     <row r="76">
@@ -2651,25 +2651,25 @@
         <v>44180</v>
       </c>
       <c r="C76" t="n">
-        <v>15.395412344329</v>
+        <v>15.22568934853173</v>
       </c>
       <c r="D76" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E76" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F76" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G76" t="n">
-        <v>1.966275830160993</v>
+        <v>1.908618474813251</v>
       </c>
       <c r="H76" t="n">
-        <v>2.582644251929368</v>
+        <v>2.362095880258178</v>
       </c>
       <c r="I76" t="n">
-        <v>10.84649226223864</v>
+        <v>10.9549749934603</v>
       </c>
     </row>
     <row r="77">
@@ -2680,25 +2680,25 @@
         <v>44181</v>
       </c>
       <c r="C77" t="n">
-        <v>15.22479532594891</v>
+        <v>15.05924197952736</v>
       </c>
       <c r="D77" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E77" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F77" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G77" t="n">
-        <v>1.938854428069887</v>
+        <v>1.882001153970691</v>
       </c>
       <c r="H77" t="n">
-        <v>2.532352210031291</v>
+        <v>2.316098594767358</v>
       </c>
       <c r="I77" t="n">
-        <v>10.75358868784773</v>
+        <v>10.86114223078931</v>
       </c>
     </row>
     <row r="78">
@@ -2709,25 +2709,25 @@
         <v>44182</v>
       </c>
       <c r="C78" t="n">
-        <v>15.54589249046118</v>
+        <v>15.37864807016032</v>
       </c>
       <c r="D78" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E78" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F78" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G78" t="n">
-        <v>1.963049782661928</v>
+        <v>1.905487025113829</v>
       </c>
       <c r="H78" t="n">
-        <v>2.57376918602204</v>
+        <v>2.353978712513895</v>
       </c>
       <c r="I78" t="n">
-        <v>11.00907352177722</v>
+        <v>11.11918233253259</v>
       </c>
     </row>
     <row r="79">
@@ -2738,25 +2738,25 @@
         <v>44183</v>
       </c>
       <c r="C79" t="n">
-        <v>15.89576325171649</v>
+        <v>15.7248228339151</v>
       </c>
       <c r="D79" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E79" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F79" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G79" t="n">
-        <v>1.995310255588895</v>
+        <v>1.93680152010489</v>
       </c>
       <c r="H79" t="n">
-        <v>2.635894649129888</v>
+        <v>2.410798888330425</v>
       </c>
       <c r="I79" t="n">
-        <v>11.26455834699771</v>
+        <v>11.37722242547979</v>
       </c>
     </row>
     <row r="80">
@@ -2767,25 +2767,25 @@
         <v>44186</v>
       </c>
       <c r="C80" t="n">
-        <v>15.85270779452255</v>
+        <v>15.67979233845335</v>
       </c>
       <c r="D80" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E80" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F80" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G80" t="n">
-        <v>2.013053516008279</v>
+        <v>1.954024492650448</v>
       </c>
       <c r="H80" t="n">
-        <v>2.644769715037217</v>
+        <v>2.418916056074709</v>
       </c>
       <c r="I80" t="n">
-        <v>11.19488456347706</v>
+        <v>11.30685178972819</v>
       </c>
     </row>
     <row r="81">
@@ -2796,25 +2796,25 @@
         <v>44187</v>
       </c>
       <c r="C81" t="n">
-        <v>15.59961704099553</v>
+        <v>15.43113114560717</v>
       </c>
       <c r="D81" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E81" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F81" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G81" t="n">
-        <v>1.943693498905748</v>
+        <v>1.886698328119192</v>
       </c>
       <c r="H81" t="n">
-        <v>2.600394383744025</v>
+        <v>2.378330215746745</v>
       </c>
       <c r="I81" t="n">
-        <v>11.05552915834575</v>
+        <v>11.16610260174123</v>
       </c>
     </row>
     <row r="82">
@@ -2825,25 +2825,25 @@
         <v>44188</v>
       </c>
       <c r="C82" t="n">
-        <v>16.11544101361816</v>
+        <v>15.94636124396222</v>
       </c>
       <c r="D82" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E82" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F82" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G82" t="n">
-        <v>2.046927012684777</v>
+        <v>1.986904712491221</v>
       </c>
       <c r="H82" t="n">
-        <v>2.618144516436957</v>
+        <v>2.394564552038585</v>
       </c>
       <c r="I82" t="n">
-        <v>11.45036948449643</v>
+        <v>11.56489197943241</v>
       </c>
     </row>
     <row r="83">
@@ -2854,25 +2854,25 @@
         <v>44189</v>
       </c>
       <c r="C83" t="n">
-        <v>15.99098745692936</v>
+        <v>15.82937042114959</v>
       </c>
       <c r="D83" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E83" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F83" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G83" t="n">
-        <v>2.069509343527286</v>
+        <v>2.008824858784647</v>
       </c>
       <c r="H83" t="n">
-        <v>2.517560433519077</v>
+        <v>2.302569981860219</v>
       </c>
       <c r="I83" t="n">
-        <v>11.403917679883</v>
+        <v>11.51797558050472</v>
       </c>
     </row>
     <row r="84">
@@ -2883,25 +2883,25 @@
         <v>44190</v>
       </c>
       <c r="C84" t="n">
-        <v>16.47937439416551</v>
+        <v>16.31041731384133</v>
       </c>
       <c r="D84" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E84" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F84" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G84" t="n">
-        <v>2.129191218958094</v>
+        <v>2.066756675018902</v>
       </c>
       <c r="H84" t="n">
-        <v>2.621102871739399</v>
+        <v>2.397270274620013</v>
       </c>
       <c r="I84" t="n">
-        <v>11.72908030346802</v>
+        <v>11.84639036420242</v>
       </c>
     </row>
     <row r="85">
@@ -2912,25 +2912,25 @@
         <v>44193</v>
       </c>
       <c r="C85" t="n">
-        <v>16.71395947938061</v>
+        <v>16.52153320403511</v>
       </c>
       <c r="D85" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E85" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F85" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G85" t="n">
-        <v>2.146934478964742</v>
+        <v>2.083979647163827</v>
       </c>
       <c r="H85" t="n">
-        <v>2.884396501561282</v>
+        <v>2.638079591596549</v>
       </c>
       <c r="I85" t="n">
-        <v>11.68262849885459</v>
+        <v>11.79947396527474</v>
       </c>
     </row>
     <row r="86">
@@ -2941,25 +2941,25 @@
         <v>44194</v>
       </c>
       <c r="C86" t="n">
-        <v>16.74549322834889</v>
+        <v>16.52401201254646</v>
       </c>
       <c r="D86" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E86" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F86" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G86" t="n">
-        <v>2.190486117312962</v>
+        <v>2.126254215301601</v>
       </c>
       <c r="H86" t="n">
-        <v>3.174315329105148</v>
+        <v>2.903240411805936</v>
       </c>
       <c r="I86" t="n">
-        <v>11.38069178193078</v>
+        <v>11.49451738543893</v>
       </c>
     </row>
     <row r="87">
@@ -2970,25 +2970,25 @@
         <v>44195</v>
       </c>
       <c r="C87" t="n">
-        <v>17.87622443644841</v>
+        <v>17.67649185244115</v>
       </c>
       <c r="D87" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E87" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F87" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G87" t="n">
-        <v>2.125965171459029</v>
+        <v>2.063625225319479</v>
       </c>
       <c r="H87" t="n">
-        <v>3.091481378001926</v>
+        <v>2.827480177116137</v>
       </c>
       <c r="I87" t="n">
-        <v>12.65877788698745</v>
+        <v>12.78538645000554</v>
       </c>
     </row>
     <row r="88">
@@ -2999,25 +2999,25 @@
         <v>44196</v>
       </c>
       <c r="C88" t="n">
-        <v>18.1984412417876</v>
+        <v>17.98628232866244</v>
       </c>
       <c r="D88" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E88" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F88" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G88" t="n">
-        <v>2.129191218958094</v>
+        <v>2.066756675018902</v>
       </c>
       <c r="H88" t="n">
-        <v>3.254190924027653</v>
+        <v>2.976294923111034</v>
       </c>
       <c r="I88" t="n">
-        <v>12.81505909880185</v>
+        <v>12.94323073053251</v>
       </c>
     </row>
     <row r="89">
@@ -3028,25 +3028,25 @@
         <v>44200</v>
       </c>
       <c r="C89" t="n">
-        <v>18.3709609075671</v>
+        <v>18.15432777199183</v>
       </c>
       <c r="D89" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E89" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F89" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G89" t="n">
-        <v>2.179194951891708</v>
+        <v>2.115294142154888</v>
       </c>
       <c r="H89" t="n">
-        <v>3.298566255320845</v>
+        <v>3.016880763438998</v>
       </c>
       <c r="I89" t="n">
-        <v>12.89319970035455</v>
+        <v>13.02215286639794</v>
       </c>
     </row>
     <row r="90">
@@ -3057,25 +3057,25 @@
         <v>44201</v>
       </c>
       <c r="C90" t="n">
-        <v>18.12736884705467</v>
+        <v>17.91297300575403</v>
       </c>
       <c r="D90" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E90" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F90" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G90" t="n">
-        <v>2.246941945244706</v>
+        <v>2.181054581836433</v>
       </c>
       <c r="H90" t="n">
-        <v>3.221649014822508</v>
+        <v>2.946531973912055</v>
       </c>
       <c r="I90" t="n">
-        <v>12.65877788698745</v>
+        <v>12.78538645000554</v>
       </c>
     </row>
     <row r="91">
@@ -3086,25 +3086,25 @@
         <v>44202</v>
       </c>
       <c r="C91" t="n">
-        <v>18.33602665922209</v>
+        <v>18.1370143509207</v>
       </c>
       <c r="D91" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E91" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F91" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G91" t="n">
-        <v>2.174355881055847</v>
+        <v>2.110596968006387</v>
       </c>
       <c r="H91" t="n">
-        <v>3.1121898659973</v>
+        <v>2.846420235989406</v>
       </c>
       <c r="I91" t="n">
-        <v>13.04948091216895</v>
+        <v>13.17999714692491</v>
       </c>
     </row>
     <row r="92">
@@ -3115,25 +3115,25 @@
         <v>44203</v>
       </c>
       <c r="C92" t="n">
-        <v>18.1396889796608</v>
+        <v>17.95558653358904</v>
       </c>
       <c r="D92" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E92" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F92" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G92" t="n">
-        <v>2.096930745618391</v>
+        <v>2.035442179627208</v>
       </c>
       <c r="H92" t="n">
-        <v>2.967230451786229</v>
+        <v>2.713839825483075</v>
       </c>
       <c r="I92" t="n">
-        <v>13.07552778225618</v>
+        <v>13.20630452847876</v>
       </c>
     </row>
     <row r="93">
@@ -3144,25 +3144,25 @@
         <v>44204</v>
       </c>
       <c r="C93" t="n">
-        <v>18.13350457727203</v>
+        <v>17.94974936170882</v>
       </c>
       <c r="D93" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E93" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F93" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G93" t="n">
-        <v>2.093704698532063</v>
+        <v>2.032310730328418</v>
       </c>
       <c r="H93" t="n">
-        <v>2.964272096483786</v>
+        <v>2.711134102901647</v>
       </c>
       <c r="I93" t="n">
-        <v>13.07552778225618</v>
+        <v>13.20630452847876</v>
       </c>
     </row>
     <row r="94">
@@ -3173,25 +3173,25 @@
         <v>44207</v>
       </c>
       <c r="C94" t="n">
-        <v>17.69315828098838</v>
+        <v>17.50042363420704</v>
       </c>
       <c r="D94" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E94" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F94" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G94" t="n">
-        <v>2.016279563094607</v>
+        <v>1.957155941949238</v>
       </c>
       <c r="H94" t="n">
-        <v>3.044147692284566</v>
+        <v>2.784188615010019</v>
       </c>
       <c r="I94" t="n">
-        <v>12.63273102560921</v>
+        <v>12.75907907724779</v>
       </c>
     </row>
     <row r="95">
@@ -3202,25 +3202,25 @@
         <v>44208</v>
       </c>
       <c r="C95" t="n">
-        <v>17.83390304013709</v>
+        <v>17.64180200318425</v>
       </c>
       <c r="D95" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E95" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F95" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G95" t="n">
-        <v>2.064670272691425</v>
+        <v>2.004127684636146</v>
       </c>
       <c r="H95" t="n">
-        <v>3.032314270196521</v>
+        <v>2.773365723881034</v>
       </c>
       <c r="I95" t="n">
-        <v>12.73691849724914</v>
+        <v>12.86430859466707</v>
       </c>
     </row>
     <row r="96">
@@ -3231,25 +3231,25 @@
         <v>44209</v>
       </c>
       <c r="C96" t="n">
-        <v>19.04211159602678</v>
+        <v>18.84117160150213</v>
       </c>
       <c r="D96" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E96" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F96" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G96" t="n">
-        <v>2.151773549800602</v>
+        <v>2.088676821312328</v>
       </c>
       <c r="H96" t="n">
-        <v>3.215732304217622</v>
+        <v>2.941120528749199</v>
       </c>
       <c r="I96" t="n">
-        <v>13.67460574200856</v>
+        <v>13.8113742514406</v>
       </c>
     </row>
     <row r="97">
@@ -3260,25 +3260,25 @@
         <v>44210</v>
       </c>
       <c r="C97" t="n">
-        <v>19.43384244463677</v>
+        <v>19.24029253744529</v>
       </c>
       <c r="D97" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E97" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F97" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G97" t="n">
-        <v>2.171129833556782</v>
+        <v>2.107465518306965</v>
       </c>
       <c r="H97" t="n">
-        <v>3.171356973802706</v>
+        <v>2.900534689224509</v>
       </c>
       <c r="I97" t="n">
-        <v>14.09135563727728</v>
+        <v>14.23229232991381</v>
       </c>
     </row>
     <row r="98">
@@ -3289,25 +3289,25 @@
         <v>44211</v>
       </c>
       <c r="C98" t="n">
-        <v>19.06058436332668</v>
+        <v>18.84817529707237</v>
       </c>
       <c r="D98" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E98" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F98" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G98" t="n">
-        <v>2.196938211898356</v>
+        <v>2.132517114299814</v>
       </c>
       <c r="H98" t="n">
-        <v>3.319274742437945</v>
+        <v>3.035820821508993</v>
       </c>
       <c r="I98" t="n">
-        <v>13.54437140899038</v>
+        <v>13.67983736126357</v>
       </c>
     </row>
     <row r="99">
@@ -3318,25 +3318,25 @@
         <v>44214</v>
       </c>
       <c r="C99" t="n">
-        <v>19.09977390562137</v>
+        <v>18.88826425338754</v>
       </c>
       <c r="D99" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E99" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F99" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G99" t="n">
-        <v>2.184034022727569</v>
+        <v>2.119991316303389</v>
       </c>
       <c r="H99" t="n">
-        <v>3.319274742437945</v>
+        <v>3.035820821508993</v>
       </c>
       <c r="I99" t="n">
-        <v>13.59646514045585</v>
+        <v>13.73245211557516</v>
       </c>
     </row>
     <row r="100">
@@ -3347,25 +3347,25 @@
         <v>44215</v>
       </c>
       <c r="C100" t="n">
-        <v>18.61887354303541</v>
+        <v>18.41580932832678</v>
       </c>
       <c r="D100" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E100" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F100" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G100" t="n">
-        <v>2.134030289793955</v>
+        <v>2.071453849167403</v>
       </c>
       <c r="H100" t="n">
-        <v>3.200940527705408</v>
+        <v>2.92759191584206</v>
       </c>
       <c r="I100" t="n">
-        <v>13.28390272553605</v>
+        <v>13.41676356331732</v>
       </c>
     </row>
     <row r="101">
@@ -3376,25 +3376,25 @@
         <v>44216</v>
       </c>
       <c r="C101" t="n">
-        <v>19.0206401307553</v>
+        <v>18.7878793376814</v>
       </c>
       <c r="D101" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E101" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F101" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G101" t="n">
-        <v>2.216294496067271</v>
+        <v>2.151305811695083</v>
       </c>
       <c r="H101" t="n">
-        <v>3.520442909151978</v>
+        <v>3.219809962668998</v>
       </c>
       <c r="I101" t="n">
-        <v>13.28390272553605</v>
+        <v>13.41676356331732</v>
       </c>
     </row>
     <row r="102">
@@ -3405,25 +3405,25 @@
         <v>44217</v>
       </c>
       <c r="C102" t="n">
-        <v>19.1342672523213</v>
+        <v>18.90124741783669</v>
       </c>
       <c r="D102" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E102" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F102" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G102" t="n">
-        <v>2.251781016080566</v>
+        <v>2.185751755984934</v>
       </c>
       <c r="H102" t="n">
-        <v>3.520442909151978</v>
+        <v>3.219809962668998</v>
       </c>
       <c r="I102" t="n">
-        <v>13.36204332708875</v>
+        <v>13.49568569918275</v>
       </c>
     </row>
     <row r="103">
@@ -3434,25 +3434,25 @@
         <v>44218</v>
       </c>
       <c r="C103" t="n">
-        <v>18.4343028686303</v>
+        <v>18.22070993959931</v>
       </c>
       <c r="D103" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E103" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F103" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G103" t="n">
-        <v>2.196938211898356</v>
+        <v>2.132517114299814</v>
       </c>
       <c r="H103" t="n">
-        <v>3.266024346115699</v>
+        <v>2.987117814240019</v>
       </c>
       <c r="I103" t="n">
-        <v>12.97134031061625</v>
+        <v>13.10107501105947</v>
       </c>
     </row>
     <row r="104">
@@ -3463,25 +3463,25 @@
         <v>44221</v>
       </c>
       <c r="C104" t="n">
-        <v>18.564945463441</v>
+        <v>18.3646447642448</v>
       </c>
       <c r="D104" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E104" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F104" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G104" t="n">
-        <v>2.322754056932629</v>
+        <v>2.254643645365902</v>
       </c>
       <c r="H104" t="n">
-        <v>3.088523022699483</v>
+        <v>2.824774454534709</v>
       </c>
       <c r="I104" t="n">
-        <v>13.15366838380888</v>
+        <v>13.28522666434419</v>
       </c>
     </row>
     <row r="105">
@@ -3492,25 +3492,25 @@
         <v>44222</v>
       </c>
       <c r="C105" t="n">
-        <v>18.52331748474598</v>
+        <v>18.32155431592039</v>
       </c>
       <c r="D105" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E105" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F105" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G105" t="n">
-        <v>2.27758939442214</v>
+        <v>2.210803351977783</v>
       </c>
       <c r="H105" t="n">
-        <v>3.118106576602186</v>
+        <v>2.851831681152261</v>
       </c>
       <c r="I105" t="n">
-        <v>13.12762151372165</v>
+        <v>13.25891928279035</v>
       </c>
     </row>
     <row r="106">
@@ -3521,25 +3521,25 @@
         <v>44223</v>
       </c>
       <c r="C106" t="n">
-        <v>18.59381870291789</v>
+        <v>18.38382151134977</v>
       </c>
       <c r="D106" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E106" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F106" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G106" t="n">
-        <v>2.282428465670737</v>
+        <v>2.215500526526917</v>
       </c>
       <c r="H106" t="n">
-        <v>3.209815593612737</v>
+        <v>2.935709083586344</v>
       </c>
       <c r="I106" t="n">
-        <v>13.10157464363442</v>
+        <v>13.23261190123651</v>
       </c>
     </row>
     <row r="107">
@@ -3550,25 +3550,25 @@
         <v>44224</v>
       </c>
       <c r="C107" t="n">
-        <v>18.54007729887877</v>
+        <v>18.34659357420928</v>
       </c>
       <c r="D107" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E107" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F107" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G107" t="n">
-        <v>2.229198685238058</v>
+        <v>2.163831609691508</v>
       </c>
       <c r="H107" t="n">
-        <v>3.053022758191895</v>
+        <v>2.792305782754302</v>
       </c>
       <c r="I107" t="n">
-        <v>13.25785585544882</v>
+        <v>13.39045618176347</v>
       </c>
     </row>
     <row r="108">
@@ -3579,25 +3579,25 @@
         <v>44225</v>
       </c>
       <c r="C108" t="n">
-        <v>18.59712663113621</v>
+        <v>18.41259464563324</v>
       </c>
       <c r="D108" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E108" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F108" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G108" t="n">
-        <v>2.209842401481878</v>
+        <v>2.145042912696871</v>
       </c>
       <c r="H108" t="n">
-        <v>2.973147162391114</v>
+        <v>2.71925127064593</v>
       </c>
       <c r="I108" t="n">
-        <v>13.41413706726321</v>
+        <v>13.54830046229044</v>
       </c>
     </row>
     <row r="109">
@@ -3608,25 +3608,25 @@
         <v>44228</v>
       </c>
       <c r="C109" t="n">
-        <v>18.76778448627503</v>
+        <v>18.57255824165588</v>
       </c>
       <c r="D109" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E109" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F109" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G109" t="n">
-        <v>2.101769816866988</v>
+        <v>2.040139354176342</v>
       </c>
       <c r="H109" t="n">
-        <v>3.147690130504889</v>
+        <v>2.878888907769813</v>
       </c>
       <c r="I109" t="n">
-        <v>13.51832453890315</v>
+        <v>13.65352997970972</v>
       </c>
     </row>
     <row r="110">
@@ -3637,25 +3637,25 @@
         <v>44229</v>
       </c>
       <c r="C110" t="n">
-        <v>18.5786046403876</v>
+        <v>18.37188160522464</v>
       </c>
       <c r="D110" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E110" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F110" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G110" t="n">
-        <v>2.051766083520638</v>
+        <v>1.991601886639722</v>
       </c>
       <c r="H110" t="n">
-        <v>3.268982701418143</v>
+        <v>2.989823536821447</v>
       </c>
       <c r="I110" t="n">
-        <v>13.25785585544882</v>
+        <v>13.39045618176347</v>
       </c>
     </row>
     <row r="111">
@@ -3666,25 +3666,25 @@
         <v>44230</v>
       </c>
       <c r="C111" t="n">
-        <v>18.09431017078702</v>
+        <v>17.88827756732759</v>
       </c>
       <c r="D111" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E111" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F111" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G111" t="n">
-        <v>1.946919546404813</v>
+        <v>1.889829777818615</v>
       </c>
       <c r="H111" t="n">
-        <v>3.254190924027653</v>
+        <v>2.976294923111034</v>
       </c>
       <c r="I111" t="n">
-        <v>12.89319970035455</v>
+        <v>13.02215286639794</v>
       </c>
     </row>
     <row r="112">
@@ -3695,25 +3695,25 @@
         <v>44231</v>
       </c>
       <c r="C112" t="n">
-        <v>17.4506372937668</v>
+        <v>17.23527582354038</v>
       </c>
       <c r="D112" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E112" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F112" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G112" t="n">
-        <v>1.819490678033743</v>
+        <v>1.766137522303448</v>
       </c>
       <c r="H112" t="n">
-        <v>3.337024875130876</v>
+        <v>3.052055157800833</v>
       </c>
       <c r="I112" t="n">
-        <v>12.29412174060218</v>
+        <v>12.4170831434361</v>
       </c>
     </row>
     <row r="113">
@@ -3724,25 +3724,25 @@
         <v>44232</v>
       </c>
       <c r="C113" t="n">
-        <v>17.04166706350003</v>
+        <v>16.85499425320128</v>
       </c>
       <c r="D113" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E113" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F113" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G113" t="n">
-        <v>1.796908346778499</v>
+        <v>1.744217375609389</v>
       </c>
       <c r="H113" t="n">
-        <v>3.002730716293817</v>
+        <v>2.746308497263482</v>
       </c>
       <c r="I113" t="n">
-        <v>12.24202800042771</v>
+        <v>12.36446838032841</v>
       </c>
     </row>
     <row r="114">
@@ -3753,25 +3753,25 @@
         <v>44235</v>
       </c>
       <c r="C114" t="n">
-        <v>16.88114342965996</v>
+        <v>16.72191184651166</v>
       </c>
       <c r="D114" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E114" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F114" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G114" t="n">
-        <v>1.775939039272787</v>
+        <v>1.723862953765041</v>
       </c>
       <c r="H114" t="n">
-        <v>2.706895178145065</v>
+        <v>2.47573623189124</v>
       </c>
       <c r="I114" t="n">
-        <v>12.39830921224211</v>
+        <v>12.52231266085538</v>
       </c>
     </row>
     <row r="115">
@@ -3782,25 +3782,25 @@
         <v>44236</v>
       </c>
       <c r="C115" t="n">
-        <v>17.15408913513429</v>
+        <v>16.99120390332291</v>
       </c>
       <c r="D115" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E115" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F115" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G115" t="n">
-        <v>1.816264630534679</v>
+        <v>1.763006072604025</v>
       </c>
       <c r="H115" t="n">
-        <v>2.757187219164867</v>
+        <v>2.521733516578786</v>
       </c>
       <c r="I115" t="n">
-        <v>12.58063728543475</v>
+        <v>12.7064643141401</v>
       </c>
     </row>
     <row r="116">
@@ -3811,25 +3811,25 @@
         <v>44237</v>
       </c>
       <c r="C116" t="n">
-        <v>17.14175640266853</v>
+        <v>16.97771086446512</v>
       </c>
       <c r="D116" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E116" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F116" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G116" t="n">
-        <v>1.82110370137054</v>
+        <v>1.767703246752526</v>
       </c>
       <c r="H116" t="n">
-        <v>2.766062285950471</v>
+        <v>2.529850685126343</v>
       </c>
       <c r="I116" t="n">
-        <v>12.55459041534752</v>
+        <v>12.68015693258626</v>
       </c>
     </row>
     <row r="117">
@@ -3840,25 +3840,25 @@
         <v>44245</v>
       </c>
       <c r="C117" t="n">
-        <v>17.56280855259596</v>
+        <v>17.38734080753192</v>
       </c>
       <c r="D117" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E117" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F117" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G117" t="n">
-        <v>1.859816269295635</v>
+        <v>1.805280641142433</v>
       </c>
       <c r="H117" t="n">
-        <v>2.913980054585709</v>
+        <v>2.665136817410827</v>
       </c>
       <c r="I117" t="n">
-        <v>12.78901222871462</v>
+        <v>12.91692334897866</v>
       </c>
     </row>
     <row r="118">
@@ -3869,25 +3869,25 @@
         <v>44246</v>
       </c>
       <c r="C118" t="n">
-        <v>18.01089931507116</v>
+        <v>17.82960705747962</v>
       </c>
       <c r="D118" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E118" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F118" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G118" t="n">
-        <v>1.906593955142921</v>
+        <v>1.85068665897963</v>
       </c>
       <c r="H118" t="n">
-        <v>3.002730716293817</v>
+        <v>2.746308497263482</v>
       </c>
       <c r="I118" t="n">
-        <v>13.10157464363442</v>
+        <v>13.23261190123651</v>
       </c>
     </row>
     <row r="119">
@@ -3898,25 +3898,25 @@
         <v>44249</v>
       </c>
       <c r="C119" t="n">
-        <v>18.41447045716447</v>
+        <v>18.23856224749477</v>
       </c>
       <c r="D119" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E119" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F119" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G119" t="n">
-        <v>1.908206978479717</v>
+        <v>1.852252383428708</v>
       </c>
       <c r="H119" t="n">
-        <v>2.987938939781603</v>
+        <v>2.732779884356343</v>
       </c>
       <c r="I119" t="n">
-        <v>13.51832453890315</v>
+        <v>13.65352997970972</v>
       </c>
     </row>
     <row r="120">
@@ -3927,25 +3927,25 @@
         <v>44250</v>
       </c>
       <c r="C120" t="n">
-        <v>18.17970879832101</v>
+        <v>18.00500748538499</v>
       </c>
       <c r="D120" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E120" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F120" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G120" t="n">
-        <v>1.882398600138144</v>
+        <v>1.827200787435859</v>
       </c>
       <c r="H120" t="n">
-        <v>2.961313741181343</v>
+        <v>2.708428380320219</v>
       </c>
       <c r="I120" t="n">
-        <v>13.33599645700152</v>
+        <v>13.46937831762891</v>
       </c>
     </row>
     <row r="121">
@@ -3956,25 +3956,25 @@
         <v>44251</v>
       </c>
       <c r="C121" t="n">
-        <v>18.34298436050932</v>
+        <v>18.16897748208917</v>
       </c>
       <c r="D121" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E121" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F121" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G121" t="n">
-        <v>1.877559529302283</v>
+        <v>1.822503613287358</v>
       </c>
       <c r="H121" t="n">
-        <v>2.973147162391114</v>
+        <v>2.71925127064593</v>
       </c>
       <c r="I121" t="n">
-        <v>13.49227766881592</v>
+        <v>13.62722259815588</v>
       </c>
     </row>
     <row r="122">
@@ -3985,25 +3985,25 @@
         <v>44252</v>
       </c>
       <c r="C122" t="n">
-        <v>18.51473845498005</v>
+        <v>18.34906090548604</v>
       </c>
       <c r="D122" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E122" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F122" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G122" t="n">
-        <v>1.888850694723537</v>
+        <v>1.833463686434071</v>
       </c>
       <c r="H122" t="n">
-        <v>2.899188278073495</v>
+        <v>2.651608204503689</v>
       </c>
       <c r="I122" t="n">
-        <v>13.72669948218302</v>
+        <v>13.86398901454828</v>
       </c>
     </row>
     <row r="123">
@@ -4014,25 +4014,25 @@
         <v>44253</v>
       </c>
       <c r="C123" t="n">
-        <v>18.18327611431855</v>
+        <v>18.02006112732262</v>
       </c>
       <c r="D123" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E123" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F123" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G123" t="n">
-        <v>1.87110743471689</v>
+        <v>1.816240714289146</v>
       </c>
       <c r="H123" t="n">
-        <v>2.845937880872975</v>
+        <v>2.602905196431441</v>
       </c>
       <c r="I123" t="n">
-        <v>13.46623079872869</v>
+        <v>13.60091521660204</v>
       </c>
     </row>
     <row r="124">
@@ -4043,25 +4043,25 @@
         <v>44256</v>
       </c>
       <c r="C124" t="n">
-        <v>18.18942302096069</v>
+        <v>18.01258314737873</v>
       </c>
       <c r="D124" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E124" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F124" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G124" t="n">
-        <v>1.903367907643856</v>
+        <v>1.847555209280207</v>
       </c>
       <c r="H124" t="n">
-        <v>2.976105517693557</v>
+        <v>2.721956993227359</v>
       </c>
       <c r="I124" t="n">
-        <v>13.30994959562328</v>
+        <v>13.44307094487116</v>
       </c>
     </row>
     <row r="125">
@@ -4072,25 +4072,25 @@
         <v>44257</v>
       </c>
       <c r="C125" t="n">
-        <v>18.37206860315602</v>
+        <v>18.19336456017464</v>
       </c>
       <c r="D125" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E125" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F125" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G125" t="n">
-        <v>1.882398600138144</v>
+        <v>1.827200787435859</v>
       </c>
       <c r="H125" t="n">
-        <v>3.023439204289192</v>
+        <v>2.76524855613675</v>
       </c>
       <c r="I125" t="n">
-        <v>13.46623079872869</v>
+        <v>13.60091521660204</v>
       </c>
     </row>
     <row r="126">
@@ -4101,25 +4101,25 @@
         <v>44258</v>
       </c>
       <c r="C126" t="n">
-        <v>18.65731784152343</v>
+        <v>18.47697971508995</v>
       </c>
       <c r="D126" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E126" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F126" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G126" t="n">
-        <v>1.888850694723537</v>
+        <v>1.833463686434071</v>
       </c>
       <c r="H126" t="n">
-        <v>3.067814534704109</v>
+        <v>2.805834395661441</v>
       </c>
       <c r="I126" t="n">
-        <v>13.70065261209579</v>
+        <v>13.83768163299444</v>
       </c>
     </row>
     <row r="127">
@@ -4130,25 +4130,25 @@
         <v>44259</v>
       </c>
       <c r="C127" t="n">
-        <v>18.49984390083674</v>
+        <v>18.32486588509842</v>
       </c>
       <c r="D127" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E127" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F127" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G127" t="n">
-        <v>1.877559529302283</v>
+        <v>1.822503613287358</v>
       </c>
       <c r="H127" t="n">
-        <v>2.999772360991375</v>
+        <v>2.743602774682055</v>
       </c>
       <c r="I127" t="n">
-        <v>13.62251201054308</v>
+        <v>13.758759497129</v>
       </c>
     </row>
     <row r="128">
@@ -4159,25 +4159,25 @@
         <v>44260</v>
       </c>
       <c r="C128" t="n">
-        <v>18.60987450636697</v>
+        <v>18.4240103821597</v>
       </c>
       <c r="D128" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E128" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F128" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G128" t="n">
-        <v>1.89530278930893</v>
+        <v>1.839726585432284</v>
       </c>
       <c r="H128" t="n">
-        <v>3.118106576602186</v>
+        <v>2.851831681152261</v>
       </c>
       <c r="I128" t="n">
-        <v>13.59646514045585</v>
+        <v>13.73245211557516</v>
       </c>
     </row>
     <row r="129">
@@ -4188,25 +4188,25 @@
         <v>44263</v>
       </c>
       <c r="C129" t="n">
-        <v>19.2706009548576</v>
+        <v>19.08338871901281</v>
       </c>
       <c r="D129" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E129" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F129" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G129" t="n">
-        <v>1.946919546404813</v>
+        <v>1.889829777818615</v>
       </c>
       <c r="H129" t="n">
-        <v>3.180232039710034</v>
+        <v>2.908651856968792</v>
       </c>
       <c r="I129" t="n">
-        <v>14.14344936874275</v>
+        <v>14.28490708422541</v>
       </c>
     </row>
     <row r="130">
@@ -4217,25 +4217,25 @@
         <v>44264</v>
       </c>
       <c r="C130" t="n">
-        <v>19.00586466510315</v>
+        <v>18.81465051404953</v>
       </c>
       <c r="D130" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E130" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F130" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G130" t="n">
-        <v>1.9598237355756</v>
+        <v>1.902355575815039</v>
       </c>
       <c r="H130" t="n">
-        <v>3.189107105617362</v>
+        <v>2.916769024713075</v>
       </c>
       <c r="I130" t="n">
-        <v>13.85693382391018</v>
+        <v>13.99552591352141</v>
       </c>
     </row>
     <row r="131">
@@ -4246,25 +4246,25 @@
         <v>44265</v>
       </c>
       <c r="C131" t="n">
-        <v>18.89390725548802</v>
+        <v>18.69806355408016</v>
       </c>
       <c r="D131" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E131" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F131" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G131" t="n">
-        <v>1.884011623887676</v>
+        <v>1.82876651228557</v>
       </c>
       <c r="H131" t="n">
-        <v>3.257149279330096</v>
+        <v>2.979000645692462</v>
       </c>
       <c r="I131" t="n">
-        <v>13.75274635227025</v>
+        <v>13.89029639610213</v>
       </c>
     </row>
     <row r="132">
@@ -4275,25 +4275,25 @@
         <v>44266</v>
       </c>
       <c r="C132" t="n">
-        <v>19.14944267462405</v>
+        <v>18.94790962112022</v>
       </c>
       <c r="D132" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E132" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F132" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G132" t="n">
-        <v>1.950145593491142</v>
+        <v>1.892961227117404</v>
       </c>
       <c r="H132" t="n">
-        <v>3.316316387135501</v>
+        <v>3.033115098927565</v>
       </c>
       <c r="I132" t="n">
-        <v>13.88298069399741</v>
+        <v>14.02183329507525</v>
       </c>
     </row>
     <row r="133">
@@ -4304,25 +4304,25 @@
         <v>44267</v>
       </c>
       <c r="C133" t="n">
-        <v>20.04741043406345</v>
+        <v>19.83791237657322</v>
       </c>
       <c r="D133" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E133" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F133" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G133" t="n">
-        <v>1.979180019331779</v>
+        <v>1.921144272809676</v>
       </c>
       <c r="H133" t="n">
-        <v>3.481984289341947</v>
+        <v>3.184635568307164</v>
       </c>
       <c r="I133" t="n">
-        <v>14.58624612538973</v>
+        <v>14.73213253545638</v>
       </c>
     </row>
     <row r="134">
@@ -4333,25 +4333,25 @@
         <v>44270</v>
       </c>
       <c r="C134" t="n">
-        <v>20.26427623021965</v>
+        <v>20.04737371827093</v>
       </c>
       <c r="D134" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E134" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F134" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G134" t="n">
-        <v>2.000149326837492</v>
+        <v>1.941498694654024</v>
       </c>
       <c r="H134" t="n">
-        <v>3.573693306352498</v>
+        <v>3.268512970741246</v>
       </c>
       <c r="I134" t="n">
-        <v>14.69043359702966</v>
+        <v>14.83736205287566</v>
       </c>
     </row>
     <row r="135">
@@ -4362,25 +4362,25 @@
         <v>44271</v>
       </c>
       <c r="C135" t="n">
-        <v>20.57666401137786</v>
+        <v>20.34402389330005</v>
       </c>
       <c r="D135" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E135" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F135" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G135" t="n">
-        <v>2.106608887702849</v>
+        <v>2.044836528324843</v>
       </c>
       <c r="H135" t="n">
-        <v>3.727527786470898</v>
+        <v>3.40921054899186</v>
       </c>
       <c r="I135" t="n">
-        <v>14.74252733720412</v>
+        <v>14.88997681598334</v>
       </c>
     </row>
     <row r="136">
@@ -4391,25 +4391,25 @@
         <v>44272</v>
       </c>
       <c r="C136" t="n">
-        <v>19.74619759329754</v>
+        <v>19.5315237885689</v>
       </c>
       <c r="D136" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E136" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F136" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G136" t="n">
-        <v>2.04854003643431</v>
+        <v>1.988470437340933</v>
       </c>
       <c r="H136" t="n">
-        <v>3.476067577858787</v>
+        <v>3.179224122341034</v>
       </c>
       <c r="I136" t="n">
-        <v>14.22158997900445</v>
+        <v>14.36382922888694</v>
       </c>
     </row>
     <row r="137">
@@ -4420,25 +4420,25 @@
         <v>44273</v>
       </c>
       <c r="C137" t="n">
-        <v>19.76253711301864</v>
+        <v>19.5492668718753</v>
       </c>
       <c r="D137" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E137" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F137" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G137" t="n">
-        <v>2.009827468509214</v>
+        <v>1.950893042951026</v>
       </c>
       <c r="H137" t="n">
-        <v>3.479025934039504</v>
+        <v>3.181929845725735</v>
       </c>
       <c r="I137" t="n">
-        <v>14.27368371046992</v>
+        <v>14.41644398319854</v>
       </c>
     </row>
     <row r="138">
@@ -4449,25 +4449,25 @@
         <v>44274</v>
       </c>
       <c r="C138" t="n">
-        <v>19.83484002946694</v>
+        <v>19.61815154492153</v>
       </c>
       <c r="D138" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E138" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F138" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G138" t="n">
-        <v>2.014666539757811</v>
+        <v>1.95559021750016</v>
       </c>
       <c r="H138" t="n">
-        <v>3.520442909151978</v>
+        <v>3.219809962668998</v>
       </c>
       <c r="I138" t="n">
-        <v>14.29973058055715</v>
+        <v>14.44275136475238</v>
       </c>
     </row>
     <row r="139">
@@ -4478,25 +4478,25 @@
         <v>44277</v>
       </c>
       <c r="C139" t="n">
-        <v>20.67356023953077</v>
+        <v>20.44353202546449</v>
       </c>
       <c r="D139" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E139" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F139" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G139" t="n">
-        <v>2.079187485611744</v>
+        <v>2.018219207482282</v>
       </c>
       <c r="H139" t="n">
-        <v>3.721611074987737</v>
+        <v>3.40379910302573</v>
       </c>
       <c r="I139" t="n">
-        <v>14.87276167893129</v>
+        <v>15.02151371495647</v>
       </c>
     </row>
     <row r="140">
@@ -4507,25 +4507,25 @@
         <v>44278</v>
       </c>
       <c r="C140" t="n">
-        <v>19.81563633926965</v>
+        <v>19.60623328699732</v>
       </c>
       <c r="D140" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E140" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F140" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G140" t="n">
-        <v>1.982406066418108</v>
+        <v>1.924275722108465</v>
       </c>
       <c r="H140" t="n">
-        <v>3.455359090741688</v>
+        <v>3.16028406427104</v>
       </c>
       <c r="I140" t="n">
-        <v>14.37787118210986</v>
+        <v>14.52167350061781</v>
       </c>
     </row>
     <row r="141">
@@ -4536,25 +4536,25 @@
         <v>44279</v>
       </c>
       <c r="C141" t="n">
-        <v>20.2352057316545</v>
+        <v>20.02100936727538</v>
       </c>
       <c r="D141" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E141" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F141" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G141" t="n">
-        <v>1.9598237355756</v>
+        <v>1.902355575815039</v>
       </c>
       <c r="H141" t="n">
-        <v>3.558901528962009</v>
+        <v>3.254984357030834</v>
       </c>
       <c r="I141" t="n">
-        <v>14.71648046711689</v>
+        <v>14.8636694344295</v>
       </c>
     </row>
     <row r="142">
@@ -4565,25 +4565,25 @@
         <v>44280</v>
       </c>
       <c r="C142" t="n">
-        <v>19.19716744693697</v>
+        <v>18.99932740906166</v>
       </c>
       <c r="D142" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E142" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F142" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G142" t="n">
-        <v>1.911433025978782</v>
+        <v>1.855383833128131</v>
       </c>
       <c r="H142" t="n">
-        <v>3.298566255320845</v>
+        <v>3.016880763438998</v>
       </c>
       <c r="I142" t="n">
-        <v>13.98716816563735</v>
+        <v>14.12706281249453</v>
       </c>
     </row>
     <row r="143">
@@ -4594,25 +4594,25 @@
         <v>44281</v>
       </c>
       <c r="C143" t="n">
-        <v>19.7542249187894</v>
+        <v>19.53804661174357</v>
       </c>
       <c r="D143" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E143" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F143" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G143" t="n">
-        <v>1.945306522655281</v>
+        <v>1.888264052968903</v>
       </c>
       <c r="H143" t="n">
-        <v>3.535234685664192</v>
+        <v>3.233338575576137</v>
       </c>
       <c r="I143" t="n">
-        <v>14.27368371046992</v>
+        <v>14.41644398319854</v>
       </c>
     </row>
     <row r="144">
@@ -4623,25 +4623,25 @@
         <v>44284</v>
       </c>
       <c r="C144" t="n">
-        <v>19.78992073051012</v>
+        <v>19.57457840043805</v>
       </c>
       <c r="D144" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E144" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F144" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G144" t="n">
-        <v>1.925950238899101</v>
+        <v>1.869475355974267</v>
       </c>
       <c r="H144" t="n">
-        <v>3.538193040966635</v>
+        <v>3.236044298157565</v>
       </c>
       <c r="I144" t="n">
-        <v>14.32577745064438</v>
+        <v>14.46905874630622</v>
       </c>
     </row>
     <row r="145">
@@ -4652,25 +4652,25 @@
         <v>44285</v>
       </c>
       <c r="C145" t="n">
-        <v>19.40363791430936</v>
+        <v>19.19250255880287</v>
       </c>
       <c r="D145" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E145" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F145" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G145" t="n">
-        <v>1.900141860557528</v>
+        <v>1.844423759981418</v>
       </c>
       <c r="H145" t="n">
-        <v>3.464234156649016</v>
+        <v>3.168401232015323</v>
       </c>
       <c r="I145" t="n">
-        <v>14.03926189710282</v>
+        <v>14.17967756680613</v>
       </c>
     </row>
     <row r="146">
@@ -4681,25 +4681,25 @@
         <v>44286</v>
       </c>
       <c r="C146" t="n">
-        <v>19.88378683899395</v>
+        <v>19.65988617489084</v>
       </c>
       <c r="D146" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E146" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F146" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G146" t="n">
-        <v>1.916272096814643</v>
+        <v>1.860081007276631</v>
       </c>
       <c r="H146" t="n">
-        <v>3.641735480065232</v>
+        <v>3.330744591720633</v>
       </c>
       <c r="I146" t="n">
-        <v>14.32577926211407</v>
+        <v>14.46906057589358</v>
       </c>
     </row>
     <row r="147">
@@ -4710,25 +4710,25 @@
         <v>44287</v>
       </c>
       <c r="C147" t="n">
-        <v>19.88964369996056</v>
+        <v>19.65182386443122</v>
       </c>
       <c r="D147" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E147" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F147" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G147" t="n">
-        <v>1.898528836807995</v>
+        <v>1.842858035131707</v>
       </c>
       <c r="H147" t="n">
-        <v>3.795569960183631</v>
+        <v>3.471442169971246</v>
       </c>
       <c r="I147" t="n">
-        <v>14.19554490296893</v>
+        <v>14.33752365932827</v>
       </c>
     </row>
     <row r="148">
@@ -4739,25 +4739,25 @@
         <v>44288</v>
       </c>
       <c r="C148" t="n">
-        <v>19.4950933106895</v>
+        <v>19.25884488270276</v>
       </c>
       <c r="D148" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E148" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F148" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G148" t="n">
-        <v>1.901754883894324</v>
+        <v>1.845989484430496</v>
       </c>
       <c r="H148" t="n">
-        <v>3.736402852378226</v>
+        <v>3.417327716736143</v>
       </c>
       <c r="I148" t="n">
-        <v>13.85693557441695</v>
+        <v>13.99552768153612</v>
       </c>
     </row>
     <row r="149">
@@ -4768,25 +4768,25 @@
         <v>44292</v>
       </c>
       <c r="C149" t="n">
-        <v>19.95381333489654</v>
+        <v>19.68526092934649</v>
       </c>
       <c r="D149" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E149" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F149" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G149" t="n">
-        <v>1.935628380570823</v>
+        <v>1.878869704271268</v>
       </c>
       <c r="H149" t="n">
-        <v>4.109155631025316</v>
+        <v>3.758248771635329</v>
       </c>
       <c r="I149" t="n">
-        <v>13.9090293233004</v>
+        <v>14.0481424534399</v>
       </c>
     </row>
     <row r="150">
@@ -4797,25 +4797,25 @@
         <v>44293</v>
       </c>
       <c r="C150" t="n">
-        <v>20.15124383874851</v>
+        <v>19.88055960889546</v>
       </c>
       <c r="D150" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E150" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F150" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G150" t="n">
-        <v>1.932402333484494</v>
+        <v>1.875738254972479</v>
       </c>
       <c r="H150" t="n">
-        <v>4.153530961440232</v>
+        <v>3.798834611160019</v>
       </c>
       <c r="I150" t="n">
-        <v>14.06531054382378</v>
+        <v>14.20598674276296</v>
       </c>
     </row>
     <row r="151">
@@ -4826,25 +4826,25 @@
         <v>44294</v>
       </c>
       <c r="C151" t="n">
-        <v>19.88038296228588</v>
+        <v>19.61945795329333</v>
       </c>
       <c r="D151" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E151" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F151" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G151" t="n">
-        <v>1.9598237355756</v>
+        <v>1.902355575815039</v>
       </c>
       <c r="H151" t="n">
-        <v>4.01152990340988</v>
+        <v>3.668959924038391</v>
       </c>
       <c r="I151" t="n">
-        <v>13.9090293233004</v>
+        <v>14.0481424534399</v>
       </c>
     </row>
     <row r="152">
@@ -4855,25 +4855,25 @@
         <v>44295</v>
       </c>
       <c r="C152" t="n">
-        <v>19.73828599026242</v>
+        <v>19.46841483668414</v>
       </c>
       <c r="D152" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E152" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F152" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G152" t="n">
-        <v>1.849757066568814</v>
+        <v>1.795516405691941</v>
       </c>
       <c r="H152" t="n">
-        <v>4.135780829625576</v>
+        <v>3.782600275671453</v>
       </c>
       <c r="I152" t="n">
-        <v>13.75274809406802</v>
+        <v>13.89029815532074</v>
       </c>
     </row>
     <row r="153">
@@ -4884,25 +4884,25 @@
         <v>44298</v>
       </c>
       <c r="C153" t="n">
-        <v>19.73167696761625</v>
+        <v>19.46833220232783</v>
       </c>
       <c r="D153" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E153" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F153" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G153" t="n">
-        <v>1.911768546148408</v>
+        <v>1.855709514797303</v>
       </c>
       <c r="H153" t="n">
-        <v>4.041113457312582</v>
+        <v>3.696017150655942</v>
       </c>
       <c r="I153" t="n">
-        <v>13.77879496415526</v>
+        <v>13.91660553687459</v>
       </c>
     </row>
     <row r="154">
@@ -4913,25 +4913,25 @@
         <v>44299</v>
       </c>
       <c r="C154" t="n">
-        <v>19.42985981510153</v>
+        <v>19.18006000193198</v>
       </c>
       <c r="D154" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E154" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F154" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G154" t="n">
-        <v>1.870931718112444</v>
+        <v>1.816070150244961</v>
       </c>
       <c r="H154" t="n">
-        <v>3.884320621891739</v>
+        <v>3.552613849823901</v>
       </c>
       <c r="I154" t="n">
-        <v>13.67460747509734</v>
+        <v>13.81137600186312</v>
       </c>
     </row>
     <row r="155">
@@ -4942,25 +4942,25 @@
         <v>44300</v>
       </c>
       <c r="C155" t="n">
-        <v>19.97343868100073</v>
+        <v>19.71977503418058</v>
       </c>
       <c r="D155" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E155" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F155" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G155" t="n">
-        <v>1.920843396868926</v>
+        <v>1.864518262520116</v>
       </c>
       <c r="H155" t="n">
-        <v>3.961237861511802</v>
+        <v>3.622962638547571</v>
       </c>
       <c r="I155" t="n">
-        <v>14.09135742262</v>
+        <v>14.23229413311289</v>
       </c>
     </row>
     <row r="156">
@@ -4971,25 +4971,25 @@
         <v>44301</v>
       </c>
       <c r="C156" t="n">
-        <v>19.13195550402518</v>
+        <v>18.90278684470289</v>
       </c>
       <c r="D156" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E156" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F156" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G156" t="n">
-        <v>1.740858858335334</v>
+        <v>1.689811433418818</v>
       </c>
       <c r="H156" t="n">
-        <v>3.69044230050527</v>
+        <v>3.375292027867109</v>
       </c>
       <c r="I156" t="n">
-        <v>13.70065434518457</v>
+        <v>13.83768338341696</v>
       </c>
     </row>
     <row r="157">
@@ -5000,25 +5000,25 @@
         <v>44302</v>
       </c>
       <c r="C157" t="n">
-        <v>19.34287000078977</v>
+        <v>19.11537360029703</v>
       </c>
       <c r="D157" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E157" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F157" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G157" t="n">
-        <v>1.781695686371297</v>
+        <v>1.72945079797116</v>
       </c>
       <c r="H157" t="n">
-        <v>3.678191869914291</v>
+        <v>3.364087739235904</v>
       </c>
       <c r="I157" t="n">
-        <v>13.88298244450418</v>
+        <v>14.02183506308996</v>
       </c>
     </row>
     <row r="158">
@@ -5029,25 +5029,25 @@
         <v>44305</v>
       </c>
       <c r="C158" t="n">
-        <v>19.32136055585643</v>
+        <v>19.09347059240427</v>
       </c>
       <c r="D158" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E158" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F158" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G158" t="n">
-        <v>1.786233111525188</v>
+        <v>1.73385517163225</v>
       </c>
       <c r="H158" t="n">
-        <v>3.678191869914291</v>
+        <v>3.364087739235904</v>
       </c>
       <c r="I158" t="n">
-        <v>13.85693557441695</v>
+        <v>13.99552768153612</v>
       </c>
     </row>
     <row r="159">
@@ -5058,25 +5058,25 @@
         <v>44306</v>
       </c>
       <c r="C159" t="n">
-        <v>19.20063644892315</v>
+        <v>18.97938373290364</v>
       </c>
       <c r="D159" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E159" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F159" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G159" t="n">
-        <v>1.765058459981558</v>
+        <v>1.71330142707923</v>
       </c>
       <c r="H159" t="n">
-        <v>3.604689284611873</v>
+        <v>3.296862005842129</v>
       </c>
       <c r="I159" t="n">
-        <v>13.83088870432972</v>
+        <v>13.96922029998227</v>
       </c>
     </row>
     <row r="160">
@@ -5087,25 +5087,25 @@
         <v>44307</v>
       </c>
       <c r="C160" t="n">
-        <v>19.02602135504063</v>
+        <v>18.80203196820075</v>
       </c>
       <c r="D160" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E160" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F160" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G160" t="n">
-        <v>1.760521034827667</v>
+        <v>1.708897053418141</v>
       </c>
       <c r="H160" t="n">
-        <v>3.616939715202851</v>
+        <v>3.308066294473334</v>
       </c>
       <c r="I160" t="n">
-        <v>13.64856060501011</v>
+        <v>13.78506862030927</v>
       </c>
     </row>
     <row r="161">
@@ -5116,25 +5116,25 @@
         <v>44308</v>
       </c>
       <c r="C161" t="n">
-        <v>19.04745960879441</v>
+        <v>18.82163947350618</v>
       </c>
       <c r="D161" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E161" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F161" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G161" t="n">
-        <v>1.760521034827667</v>
+        <v>1.708897053418141</v>
       </c>
       <c r="H161" t="n">
-        <v>3.638377968956632</v>
+        <v>3.327673799778761</v>
       </c>
       <c r="I161" t="n">
-        <v>13.64856060501011</v>
+        <v>13.78506862030927</v>
       </c>
     </row>
     <row r="162">
@@ -5145,25 +5145,25 @@
         <v>44309</v>
       </c>
       <c r="C162" t="n">
-        <v>18.68911691344881</v>
+        <v>18.45826237393065</v>
       </c>
       <c r="D162" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E162" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F162" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G162" t="n">
-        <v>1.745396283489225</v>
+        <v>1.694215807079908</v>
       </c>
       <c r="H162" t="n">
-        <v>3.659816223588686</v>
+        <v>3.34728130588746</v>
       </c>
       <c r="I162" t="n">
-        <v>13.2839044063709</v>
+        <v>13.41676526096328</v>
       </c>
     </row>
     <row r="163">
@@ -5174,25 +5174,25 @@
         <v>44312</v>
       </c>
       <c r="C163" t="n">
-        <v>18.76291663393709</v>
+        <v>18.5269725470113</v>
       </c>
       <c r="D163" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E163" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F163" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G163" t="n">
-        <v>1.722709156894298</v>
+        <v>1.672193937973191</v>
       </c>
       <c r="H163" t="n">
-        <v>3.730256200584655</v>
+        <v>3.411705966520979</v>
       </c>
       <c r="I163" t="n">
-        <v>13.30995127645813</v>
+        <v>13.44307264251712</v>
       </c>
     </row>
     <row r="164">
@@ -5203,25 +5203,25 @@
         <v>44313</v>
       </c>
       <c r="C164" t="n">
-        <v>16.79316903571448</v>
+        <v>16.5480683467033</v>
       </c>
       <c r="D164" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E164" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F164" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G164" t="n">
-        <v>1.684897278960929</v>
+        <v>1.635490822528243</v>
       </c>
       <c r="H164" t="n">
-        <v>3.635315361528456</v>
+        <v>3.324872727821778</v>
       </c>
       <c r="I164" t="n">
-        <v>11.47295639522509</v>
+        <v>11.58770479635328</v>
       </c>
     </row>
     <row r="165">
@@ -5232,25 +5232,25 @@
         <v>44314</v>
       </c>
       <c r="C165" t="n">
-        <v>16.86230367800499</v>
+        <v>16.63820337072851</v>
       </c>
       <c r="D165" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E165" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F165" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G165" t="n">
-        <v>1.510217086573738</v>
+        <v>1.465932799559091</v>
       </c>
       <c r="H165" t="n">
-        <v>3.494435406658245</v>
+        <v>3.196023405751467</v>
       </c>
       <c r="I165" t="n">
-        <v>11.85765118477301</v>
+        <v>11.97624716541795</v>
       </c>
     </row>
     <row r="166">
@@ -5261,25 +5261,25 @@
         <v>44315</v>
       </c>
       <c r="C166" t="n">
-        <v>16.87216562870404</v>
+        <v>16.64431029992078</v>
       </c>
       <c r="D166" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E166" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F166" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G166" t="n">
-        <v>1.496769027238594</v>
+        <v>1.452879079372061</v>
       </c>
       <c r="H166" t="n">
-        <v>3.540374522472256</v>
+        <v>3.238039489122576</v>
       </c>
       <c r="I166" t="n">
-        <v>11.83502207899319</v>
+        <v>11.95339173142614</v>
       </c>
     </row>
     <row r="167">
@@ -5290,25 +5290,25 @@
         <v>44316</v>
       </c>
       <c r="C167" t="n">
-        <v>15.89122788178226</v>
+        <v>15.74422820125038</v>
       </c>
       <c r="D167" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E167" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F167" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G167" t="n">
-        <v>1.483320967490714</v>
+        <v>1.439825358784398</v>
       </c>
       <c r="H167" t="n">
-        <v>2.595513941078172</v>
+        <v>2.373866545031649</v>
       </c>
       <c r="I167" t="n">
-        <v>11.81239297321337</v>
+        <v>11.93053629743433</v>
       </c>
     </row>
     <row r="168">
@@ -5319,25 +5319,25 @@
         <v>44322</v>
       </c>
       <c r="C168" t="n">
-        <v>15.93537388274595</v>
+        <v>15.78796958778182</v>
       </c>
       <c r="D168" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E168" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F168" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G168" t="n">
-        <v>1.504837862674586</v>
+        <v>1.460711311324026</v>
       </c>
       <c r="H168" t="n">
-        <v>2.595513941078172</v>
+        <v>2.373866545031649</v>
       </c>
       <c r="I168" t="n">
-        <v>11.83502207899319</v>
+        <v>11.95339173142614</v>
       </c>
     </row>
     <row r="169">
@@ -5348,25 +5348,25 @@
         <v>44323</v>
       </c>
       <c r="C169" t="n">
-        <v>16.25158797683356</v>
+        <v>16.1056966235731</v>
       </c>
       <c r="D169" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E169" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F169" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G169" t="n">
-        <v>1.512906698523314</v>
+        <v>1.468543543676623</v>
       </c>
       <c r="H169" t="n">
-        <v>2.609480832888406</v>
+        <v>2.386640715372887</v>
       </c>
       <c r="I169" t="n">
-        <v>12.12920044542184</v>
+        <v>12.25051236452359</v>
       </c>
     </row>
     <row r="170">
@@ -5377,25 +5377,25 @@
         <v>44326</v>
       </c>
       <c r="C170" t="n">
-        <v>16.2290055843106</v>
+        <v>16.08727686342609</v>
       </c>
       <c r="D170" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E170" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F170" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G170" t="n">
-        <v>1.514251504498102</v>
+        <v>1.46984891573539</v>
       </c>
       <c r="H170" t="n">
-        <v>2.562924528610842</v>
+        <v>2.344060149175307</v>
       </c>
       <c r="I170" t="n">
-        <v>12.15182955120166</v>
+        <v>12.27336779851539</v>
       </c>
     </row>
     <row r="171">
@@ -5406,25 +5406,25 @@
         <v>44327</v>
       </c>
       <c r="C171" t="n">
-        <v>16.16820409349296</v>
+        <v>16.02571913747182</v>
       </c>
       <c r="D171" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E171" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F171" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G171" t="n">
-        <v>1.523665146321618</v>
+        <v>1.478986520146754</v>
       </c>
       <c r="H171" t="n">
-        <v>2.560596713309137</v>
+        <v>2.3419311207851</v>
       </c>
       <c r="I171" t="n">
-        <v>12.0839422338622</v>
+        <v>12.20480149653996</v>
       </c>
     </row>
     <row r="172">
@@ -5435,25 +5435,25 @@
         <v>44328</v>
       </c>
       <c r="C172" t="n">
-        <v>16.16124848214603</v>
+        <v>16.01742496160734</v>
       </c>
       <c r="D172" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E172" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F172" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G172" t="n">
-        <v>1.527699564245983</v>
+        <v>1.482902636323053</v>
       </c>
       <c r="H172" t="n">
-        <v>2.572235789817665</v>
+        <v>2.352576262736132</v>
       </c>
       <c r="I172" t="n">
-        <v>12.06131312808238</v>
+        <v>12.18194606254815</v>
       </c>
     </row>
     <row r="173">
@@ -5464,25 +5464,25 @@
         <v>44329</v>
       </c>
       <c r="C173" t="n">
-        <v>16.06175476078789</v>
+        <v>15.91987591930373</v>
       </c>
       <c r="D173" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E173" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F173" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G173" t="n">
-        <v>1.526354758271194</v>
+        <v>1.481597264264287</v>
       </c>
       <c r="H173" t="n">
-        <v>2.541974191773766</v>
+        <v>2.324898894466723</v>
       </c>
       <c r="I173" t="n">
-        <v>11.99342581074293</v>
+        <v>12.11337976057272</v>
       </c>
     </row>
     <row r="174">
@@ -5493,25 +5493,25 @@
         <v>44330</v>
       </c>
       <c r="C174" t="n">
-        <v>16.2590087793509</v>
+        <v>16.11266258105137</v>
       </c>
       <c r="D174" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E174" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F174" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G174" t="n">
-        <v>1.554595683329007</v>
+        <v>1.509010077097745</v>
       </c>
       <c r="H174" t="n">
-        <v>2.597841756379878</v>
+        <v>2.375995573421855</v>
       </c>
       <c r="I174" t="n">
-        <v>12.10657133964202</v>
+        <v>12.22765693053177</v>
       </c>
     </row>
     <row r="175">
@@ -5522,25 +5522,25 @@
         <v>44333</v>
       </c>
       <c r="C175" t="n">
-        <v>16.27633320904662</v>
+        <v>16.13282510995906</v>
       </c>
       <c r="D175" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E175" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F175" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G175" t="n">
-        <v>1.554595683329007</v>
+        <v>1.509010077097745</v>
       </c>
       <c r="H175" t="n">
-        <v>2.569907974515959</v>
+        <v>2.350447234345926</v>
       </c>
       <c r="I175" t="n">
-        <v>12.15182955120166</v>
+        <v>12.27336779851539</v>
       </c>
     </row>
     <row r="176">
@@ -5551,25 +5551,25 @@
         <v>44334</v>
       </c>
       <c r="C176" t="n">
-        <v>16.38506465641138</v>
+        <v>16.23393025650458</v>
       </c>
       <c r="D176" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E176" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F176" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G176" t="n">
-        <v>1.584181413948871</v>
+        <v>1.537728261589338</v>
       </c>
       <c r="H176" t="n">
-        <v>2.649053691260853</v>
+        <v>2.422834196399849</v>
       </c>
       <c r="I176" t="n">
-        <v>12.15182955120166</v>
+        <v>12.27336779851539</v>
       </c>
     </row>
     <row r="177">
@@ -5580,25 +5580,25 @@
         <v>44335</v>
       </c>
       <c r="C177" t="n">
-        <v>16.46072836008743</v>
+        <v>16.30811080784806</v>
       </c>
       <c r="D177" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E177" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F177" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G177" t="n">
-        <v>1.595964384529916</v>
+        <v>1.549165718630816</v>
       </c>
       <c r="H177" t="n">
-        <v>2.667676212796223</v>
+        <v>2.439866422718227</v>
       </c>
       <c r="I177" t="n">
-        <v>12.19708776276129</v>
+        <v>12.31907866649902</v>
       </c>
     </row>
     <row r="178">
@@ -5609,25 +5609,25 @@
         <v>44336</v>
       </c>
       <c r="C178" t="n">
-        <v>16.35256955175851</v>
+        <v>16.1996707324357</v>
       </c>
       <c r="D178" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E178" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F178" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G178" t="n">
-        <v>1.541726002608483</v>
+        <v>1.496517775655924</v>
       </c>
       <c r="H178" t="n">
-        <v>2.681643103728183</v>
+        <v>2.452640592256191</v>
       </c>
       <c r="I178" t="n">
-        <v>12.12920044542184</v>
+        <v>12.25051236452359</v>
       </c>
     </row>
     <row r="179">
@@ -5638,25 +5638,25 @@
         <v>44337</v>
       </c>
       <c r="C179" t="n">
-        <v>15.99718084122532</v>
+        <v>15.84974394168207</v>
       </c>
       <c r="D179" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E179" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F179" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G179" t="n">
-        <v>1.521386609594314</v>
+        <v>1.476774797240656</v>
       </c>
       <c r="H179" t="n">
-        <v>2.595513941078172</v>
+        <v>2.373866545031649</v>
       </c>
       <c r="I179" t="n">
-        <v>11.88028029055283</v>
+        <v>11.99910259940977</v>
       </c>
     </row>
     <row r="180">
@@ -5667,25 +5667,25 @@
         <v>44340</v>
       </c>
       <c r="C180" t="n">
-        <v>15.84219593372364</v>
+        <v>15.69526965095849</v>
       </c>
       <c r="D180" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E180" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F180" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G180" t="n">
-        <v>1.525454488032053</v>
+        <v>1.480723392763456</v>
       </c>
       <c r="H180" t="n">
-        <v>2.572235789817665</v>
+        <v>2.352576262736132</v>
       </c>
       <c r="I180" t="n">
-        <v>11.74450565587392</v>
+        <v>11.8619699954589</v>
       </c>
     </row>
     <row r="181">
@@ -5696,25 +5696,25 @@
         <v>44341</v>
       </c>
       <c r="C181" t="n">
-        <v>16.02844896148677</v>
+        <v>15.88357181629593</v>
       </c>
       <c r="D181" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E181" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F181" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G181" t="n">
-        <v>1.537658124170744</v>
+        <v>1.492569180133123</v>
       </c>
       <c r="H181" t="n">
-        <v>2.565252343912548</v>
+        <v>2.346189177565513</v>
       </c>
       <c r="I181" t="n">
-        <v>11.92553849340348</v>
+        <v>12.04481345859729</v>
       </c>
     </row>
     <row r="182">
@@ -5725,25 +5725,25 @@
         <v>44342</v>
       </c>
       <c r="C182" t="n">
-        <v>16.05974371751471</v>
+        <v>15.91018741042368</v>
       </c>
       <c r="D182" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E182" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F182" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G182" t="n">
-        <v>1.540370043266815</v>
+        <v>1.495201577281868</v>
       </c>
       <c r="H182" t="n">
-        <v>2.616464277915248</v>
+        <v>2.393027799740233</v>
       </c>
       <c r="I182" t="n">
-        <v>11.90290939633265</v>
+        <v>12.02195803340157</v>
       </c>
     </row>
     <row r="183">
@@ -5754,25 +5754,25 @@
         <v>44343</v>
       </c>
       <c r="C183" t="n">
-        <v>15.99798715222838</v>
+        <v>15.84976725281608</v>
       </c>
       <c r="D183" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E183" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F183" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G183" t="n">
-        <v>1.547149840800627</v>
+        <v>1.501782569953413</v>
       </c>
       <c r="H183" t="n">
-        <v>2.593186126654741</v>
+        <v>2.371737517444716</v>
       </c>
       <c r="I183" t="n">
-        <v>11.85765118477301</v>
+        <v>11.97624716541795</v>
       </c>
     </row>
     <row r="184">
@@ -5783,25 +5783,25 @@
         <v>44344</v>
       </c>
       <c r="C184" t="n">
-        <v>15.92605172053887</v>
+        <v>15.78268228266428</v>
       </c>
       <c r="D184" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E184" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F184" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G184" t="n">
-        <v>1.524098528690385</v>
+        <v>1.4794071943894</v>
       </c>
       <c r="H184" t="n">
-        <v>2.544302007075472</v>
+        <v>2.327027922856929</v>
       </c>
       <c r="I184" t="n">
-        <v>11.85765118477301</v>
+        <v>11.97624716541795</v>
       </c>
     </row>
     <row r="185">
@@ -5812,25 +5812,25 @@
         <v>44347</v>
       </c>
       <c r="C185" t="n">
-        <v>15.87735148483049</v>
+        <v>15.73234885282851</v>
       </c>
       <c r="D185" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E185" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F185" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G185" t="n">
-        <v>1.53630216441634</v>
+        <v>1.491252981358435</v>
       </c>
       <c r="H185" t="n">
-        <v>2.551285452980589</v>
+        <v>2.333415008027548</v>
       </c>
       <c r="I185" t="n">
-        <v>11.78976386743356</v>
+        <v>11.90768086344252</v>
       </c>
     </row>
     <row r="186">
@@ -5841,25 +5841,25 @@
         <v>44348</v>
       </c>
       <c r="C186" t="n">
-        <v>15.75580525607858</v>
+        <v>15.61224301107478</v>
       </c>
       <c r="D186" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E186" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F186" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G186" t="n">
-        <v>1.530878326224197</v>
+        <v>1.485988187060945</v>
       </c>
       <c r="H186" t="n">
-        <v>2.525679485540101</v>
+        <v>2.309995696538552</v>
       </c>
       <c r="I186" t="n">
-        <v>11.69924744431428</v>
+        <v>11.81625912747528</v>
       </c>
     </row>
     <row r="187">
@@ -5870,25 +5870,25 @@
         <v>44349</v>
       </c>
       <c r="C187" t="n">
-        <v>15.64182679782792</v>
+        <v>15.50515482806001</v>
       </c>
       <c r="D187" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E187" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F187" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G187" t="n">
-        <v>1.518674690498242</v>
+        <v>1.474142400091911</v>
       </c>
       <c r="H187" t="n">
-        <v>2.446533768795208</v>
+        <v>2.237608734484628</v>
       </c>
       <c r="I187" t="n">
-        <v>11.67661833853447</v>
+        <v>11.79340369348347</v>
       </c>
     </row>
     <row r="188">
@@ -5899,25 +5899,25 @@
         <v>44350</v>
       </c>
       <c r="C188" t="n">
-        <v>15.74383994369044</v>
+        <v>15.60554100172921</v>
       </c>
       <c r="D188" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E188" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F188" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G188" t="n">
-        <v>1.529522366882529</v>
+        <v>1.48467198868689</v>
       </c>
       <c r="H188" t="n">
-        <v>2.469811920933989</v>
+        <v>2.258899017583419</v>
       </c>
       <c r="I188" t="n">
-        <v>11.74450565587392</v>
+        <v>11.8619699954589</v>
       </c>
     </row>
     <row r="189">
@@ -5928,25 +5928,25 @@
         <v>44351</v>
       </c>
       <c r="C189" t="n">
-        <v>15.66295759096633</v>
+        <v>15.52501335983133</v>
       </c>
       <c r="D189" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E189" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F189" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G189" t="n">
-        <v>1.528166407128125</v>
+        <v>1.483355789912201</v>
       </c>
       <c r="H189" t="n">
-        <v>2.458172845303736</v>
+        <v>2.248253876435661</v>
       </c>
       <c r="I189" t="n">
-        <v>11.67661833853447</v>
+        <v>11.79340369348347</v>
       </c>
     </row>
     <row r="190">
@@ -5957,25 +5957,25 @@
         <v>44354</v>
       </c>
       <c r="C190" t="n">
-        <v>15.56881868739697</v>
+        <v>15.4282717849492</v>
       </c>
       <c r="D190" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E190" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F190" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G190" t="n">
-        <v>1.530878326224197</v>
+        <v>1.485988187060945</v>
       </c>
       <c r="H190" t="n">
-        <v>2.474467551537401</v>
+        <v>2.263157074363832</v>
       </c>
       <c r="I190" t="n">
-        <v>11.56347280963537</v>
+        <v>11.67912652352442</v>
       </c>
     </row>
     <row r="191">
@@ -5986,25 +5986,25 @@
         <v>44355</v>
       </c>
       <c r="C191" t="n">
-        <v>15.49084847457069</v>
+        <v>15.35650374500987</v>
       </c>
       <c r="D191" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E191" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F191" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G191" t="n">
-        <v>1.522742568935982</v>
+        <v>1.478090995614712</v>
       </c>
       <c r="H191" t="n">
-        <v>2.40463309599933</v>
+        <v>2.199286225870734</v>
       </c>
       <c r="I191" t="n">
-        <v>11.56347280963537</v>
+        <v>11.67912652352442</v>
       </c>
     </row>
     <row r="192">
@@ -6015,25 +6015,25 @@
         <v>44356</v>
       </c>
       <c r="C192" t="n">
-        <v>15.50744622543947</v>
+        <v>15.3683549956975</v>
       </c>
       <c r="D192" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E192" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F192" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G192" t="n">
-        <v>1.540370043266815</v>
+        <v>1.495201577281868</v>
       </c>
       <c r="H192" t="n">
-        <v>2.448861584096913</v>
+        <v>2.239737762874835</v>
       </c>
       <c r="I192" t="n">
-        <v>11.51821459807574</v>
+        <v>11.6334156555408</v>
       </c>
     </row>
     <row r="193">
@@ -6044,25 +6044,25 @@
         <v>44357</v>
       </c>
       <c r="C193" t="n">
-        <v>15.46077076864113</v>
+        <v>15.32320254988592</v>
       </c>
       <c r="D193" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E193" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F193" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G193" t="n">
-        <v>1.534946205074672</v>
+        <v>1.489936782984379</v>
       </c>
       <c r="H193" t="n">
-        <v>2.430239062561543</v>
+        <v>2.222705536556457</v>
       </c>
       <c r="I193" t="n">
-        <v>11.49558550100491</v>
+        <v>11.61056023034508</v>
       </c>
     </row>
     <row r="194">
@@ -6073,25 +6073,25 @@
         <v>44358</v>
       </c>
       <c r="C194" t="n">
-        <v>15.44570942424082</v>
+        <v>15.31336476543634</v>
       </c>
       <c r="D194" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E194" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F194" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G194" t="n">
-        <v>1.528166407128125</v>
+        <v>1.483355789912201</v>
       </c>
       <c r="H194" t="n">
-        <v>2.376699313257137</v>
+        <v>2.173737885991531</v>
       </c>
       <c r="I194" t="n">
-        <v>11.54084370385556</v>
+        <v>11.65627108953261</v>
       </c>
     </row>
     <row r="195">
@@ -6102,25 +6102,25 @@
         <v>44362</v>
       </c>
       <c r="C195" t="n">
-        <v>15.21196633960162</v>
+        <v>15.08068577750011</v>
       </c>
       <c r="D195" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E195" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F195" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G195" t="n">
-        <v>1.537658124170744</v>
+        <v>1.492569180133123</v>
       </c>
       <c r="H195" t="n">
-        <v>2.33712645488469</v>
+        <v>2.137544404964569</v>
       </c>
       <c r="I195" t="n">
-        <v>11.33718176054618</v>
+        <v>11.45057219240241</v>
       </c>
     </row>
     <row r="196">
@@ -6131,25 +6131,25 @@
         <v>44363</v>
       </c>
       <c r="C196" t="n">
-        <v>15.20955403803665</v>
+        <v>15.08132254582419</v>
       </c>
       <c r="D196" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E196" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F196" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G196" t="n">
-        <v>1.549861759896698</v>
+        <v>1.504414967102157</v>
       </c>
       <c r="H196" t="n">
-        <v>2.299881411813949</v>
+        <v>2.103479952327814</v>
       </c>
       <c r="I196" t="n">
-        <v>11.359810866326</v>
+        <v>11.47342762639422</v>
       </c>
     </row>
     <row r="197">
@@ -6160,25 +6160,25 @@
         <v>44364</v>
       </c>
       <c r="C197" t="n">
-        <v>15.18376276108597</v>
+        <v>15.05168378770399</v>
       </c>
       <c r="D197" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E197" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F197" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G197" t="n">
-        <v>1.595964384529916</v>
+        <v>1.549165718630816</v>
       </c>
       <c r="H197" t="n">
-        <v>2.31850393334932</v>
+        <v>2.120512178646192</v>
       </c>
       <c r="I197" t="n">
-        <v>11.26929444320673</v>
+        <v>11.38200589042698</v>
       </c>
     </row>
     <row r="198">
@@ -6189,25 +6189,25 @@
         <v>44365</v>
       </c>
       <c r="C198" t="n">
-        <v>15.24256080316</v>
+        <v>15.10512671328163</v>
       </c>
       <c r="D198" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E198" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F198" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G198" t="n">
-        <v>1.628507413682776</v>
+        <v>1.580754484415751</v>
       </c>
       <c r="H198" t="n">
-        <v>2.367388052050314</v>
+        <v>2.165221772430705</v>
       </c>
       <c r="I198" t="n">
-        <v>11.24666533742691</v>
+        <v>11.35915045643517</v>
       </c>
     </row>
     <row r="199">
@@ -6218,25 +6218,25 @@
         <v>44368</v>
       </c>
       <c r="C199" t="n">
-        <v>15.15133746664529</v>
+        <v>15.01082362764668</v>
       </c>
       <c r="D199" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E199" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F199" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G199" t="n">
-        <v>1.627151453928373</v>
+        <v>1.579438285641062</v>
       </c>
       <c r="H199" t="n">
-        <v>2.390666204189096</v>
+        <v>2.186512055529496</v>
       </c>
       <c r="I199" t="n">
-        <v>11.13351980852782</v>
+        <v>11.24487328647612</v>
       </c>
     </row>
     <row r="200">
@@ -6247,25 +6247,25 @@
         <v>44369</v>
       </c>
       <c r="C200" t="n">
-        <v>15.20586883687569</v>
+        <v>15.06603403637746</v>
       </c>
       <c r="D200" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E200" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F200" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G200" t="n">
-        <v>1.606812060914203</v>
+        <v>1.559695307225794</v>
       </c>
       <c r="H200" t="n">
-        <v>2.397649650094213</v>
+        <v>2.192899140700115</v>
       </c>
       <c r="I200" t="n">
-        <v>11.20140712586727</v>
+        <v>11.31343958845155</v>
       </c>
     </row>
     <row r="201">
@@ -6276,25 +6276,25 @@
         <v>44370</v>
       </c>
       <c r="C201" t="n">
-        <v>15.6070155964231</v>
+        <v>15.47106806459407</v>
       </c>
       <c r="D201" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E201" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F201" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G201" t="n">
-        <v>1.632575292120516</v>
+        <v>1.584703079938551</v>
       </c>
       <c r="H201" t="n">
-        <v>2.38833838888739</v>
+        <v>2.184383027139289</v>
       </c>
       <c r="I201" t="n">
-        <v>11.58610191541519</v>
+        <v>11.70198195751623</v>
       </c>
     </row>
     <row r="202">
@@ -6305,25 +6305,25 @@
         <v>44371</v>
       </c>
       <c r="C202" t="n">
-        <v>15.7665635925252</v>
+        <v>15.62001622641294</v>
       </c>
       <c r="D202" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E202" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F202" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G202" t="n">
-        <v>1.609523980010275</v>
+        <v>1.562327704374539</v>
       </c>
       <c r="H202" t="n">
-        <v>2.525679485540101</v>
+        <v>2.309995696538552</v>
       </c>
       <c r="I202" t="n">
-        <v>11.63136012697483</v>
+        <v>11.74769282549985</v>
       </c>
     </row>
     <row r="203">
@@ -6334,25 +6334,25 @@
         <v>44372</v>
       </c>
       <c r="C203" t="n">
-        <v>15.61272756883707</v>
+        <v>15.47337315427571</v>
       </c>
       <c r="D203" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E203" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F203" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G203" t="n">
-        <v>1.619015696640157</v>
+        <v>1.571541094194828</v>
       </c>
       <c r="H203" t="n">
-        <v>2.430239062561543</v>
+        <v>2.222705536556457</v>
       </c>
       <c r="I203" t="n">
-        <v>11.56347280963537</v>
+        <v>11.67912652352442</v>
       </c>
     </row>
     <row r="204">
@@ -6363,25 +6363,25 @@
         <v>44375</v>
       </c>
       <c r="C204" t="n">
-        <v>15.64992622859335</v>
+        <v>15.50921997684106</v>
       </c>
       <c r="D204" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E204" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F204" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G204" t="n">
-        <v>1.651558725793018</v>
+        <v>1.603129859979764</v>
       </c>
       <c r="H204" t="n">
-        <v>2.434894693164954</v>
+        <v>2.22696359333687</v>
       </c>
       <c r="I204" t="n">
-        <v>11.56347280963537</v>
+        <v>11.67912652352442</v>
       </c>
     </row>
     <row r="205">
@@ -6392,25 +6392,25 @@
         <v>44376</v>
       </c>
       <c r="C205" t="n">
-        <v>15.48361015201438</v>
+        <v>15.34657077609375</v>
       </c>
       <c r="D205" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E205" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F205" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G205" t="n">
-        <v>1.61765973729849</v>
+        <v>1.570224895820773</v>
       </c>
       <c r="H205" t="n">
-        <v>2.392994019490802</v>
+        <v>2.188641083919702</v>
       </c>
       <c r="I205" t="n">
-        <v>11.47295639522509</v>
+        <v>11.58770479635328</v>
       </c>
     </row>
     <row r="206">
@@ -6421,25 +6421,25 @@
         <v>44377</v>
       </c>
       <c r="C206" t="n">
-        <v>15.46893723600385</v>
+        <v>15.33091615408957</v>
       </c>
       <c r="D206" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E206" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F206" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G206" t="n">
-        <v>1.616303777544086</v>
+        <v>1.568908697046084</v>
       </c>
       <c r="H206" t="n">
-        <v>2.402305280697624</v>
+        <v>2.197157197480528</v>
       </c>
       <c r="I206" t="n">
-        <v>11.45032817776214</v>
+        <v>11.56485025956296</v>
       </c>
     </row>
     <row r="207">
@@ -6450,25 +6450,25 @@
         <v>44378</v>
       </c>
       <c r="C207" t="n">
-        <v>15.42610767211458</v>
+        <v>15.29631956703839</v>
       </c>
       <c r="D207" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E207" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F207" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G207" t="n">
-        <v>1.582404789049558</v>
+        <v>1.536003732887093</v>
       </c>
       <c r="H207" t="n">
-        <v>2.325487379254437</v>
+        <v>2.126899263816811</v>
       </c>
       <c r="I207" t="n">
-        <v>11.51821550381058</v>
+        <v>11.63341657033448</v>
       </c>
     </row>
     <row r="208">
@@ -6479,25 +6479,25 @@
         <v>44379</v>
       </c>
       <c r="C208" t="n">
-        <v>15.25967241600959</v>
+        <v>15.13109845948552</v>
       </c>
       <c r="D208" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E208" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F208" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G208" t="n">
-        <v>1.543081962362887</v>
+        <v>1.497833974430613</v>
       </c>
       <c r="H208" t="n">
-        <v>2.311520487444203</v>
+        <v>2.114125093475573</v>
       </c>
       <c r="I208" t="n">
-        <v>11.4050699662025</v>
+        <v>11.51913939157934</v>
       </c>
     </row>
     <row r="209">
@@ -6508,25 +6508,25 @@
         <v>44382</v>
       </c>
       <c r="C209" t="n">
-        <v>15.37285604744474</v>
+        <v>15.24439220225824</v>
       </c>
       <c r="D209" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E209" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F209" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G209" t="n">
-        <v>1.563421355377057</v>
+        <v>1.517576952845881</v>
       </c>
       <c r="H209" t="n">
-        <v>2.313848302745908</v>
+        <v>2.116254121865779</v>
       </c>
       <c r="I209" t="n">
-        <v>11.49558638932178</v>
+        <v>11.61056112754658</v>
       </c>
     </row>
     <row r="210">
@@ -6537,25 +6537,25 @@
         <v>44383</v>
       </c>
       <c r="C210" t="n">
-        <v>15.62578624025472</v>
+        <v>15.49530408912304</v>
       </c>
       <c r="D210" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E210" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F210" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G210" t="n">
-        <v>1.566133274473128</v>
+        <v>1.520209349994625</v>
       </c>
       <c r="H210" t="n">
-        <v>2.360404607023472</v>
+        <v>2.15883468806336</v>
       </c>
       <c r="I210" t="n">
-        <v>11.69924835875812</v>
+        <v>11.81626005106506</v>
       </c>
     </row>
     <row r="211">
@@ -6566,25 +6566,25 @@
         <v>44384</v>
       </c>
       <c r="C211" t="n">
-        <v>15.59945844853997</v>
+        <v>15.46909567018837</v>
       </c>
       <c r="D211" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E211" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F211" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G211" t="n">
-        <v>1.528166407128125</v>
+        <v>1.483355789912201</v>
       </c>
       <c r="H211" t="n">
-        <v>2.372043682653725</v>
+        <v>2.169479829211118</v>
       </c>
       <c r="I211" t="n">
-        <v>11.69924835875812</v>
+        <v>11.81626005106506</v>
       </c>
     </row>
     <row r="212">
@@ -6595,25 +6595,25 @@
         <v>44385</v>
       </c>
       <c r="C212" t="n">
-        <v>15.24526697222908</v>
+        <v>15.1070532987182</v>
       </c>
       <c r="D212" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E212" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F212" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G212" t="n">
-        <v>1.541726002608483</v>
+        <v>1.496517775655924</v>
       </c>
       <c r="H212" t="n">
-        <v>2.411616541026172</v>
+        <v>2.20567331023808</v>
       </c>
       <c r="I212" t="n">
-        <v>11.29192442859442</v>
+        <v>11.40486221282419</v>
       </c>
     </row>
     <row r="213">
@@ -6624,25 +6624,25 @@
         <v>44386</v>
       </c>
       <c r="C213" t="n">
-        <v>15.16329359314063</v>
+        <v>15.02314092919534</v>
       </c>
       <c r="D213" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E213" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F213" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G213" t="n">
-        <v>1.53630216441634</v>
+        <v>1.491252981358435</v>
       </c>
       <c r="H213" t="n">
-        <v>2.425583431958132</v>
+        <v>2.218447479776045</v>
       </c>
       <c r="I213" t="n">
-        <v>11.20140799676616</v>
+        <v>11.31344046806086</v>
       </c>
     </row>
     <row r="214">
@@ -6653,25 +6653,25 @@
         <v>44389</v>
       </c>
       <c r="C214" t="n">
-        <v>15.18648726813788</v>
+        <v>15.04719701820515</v>
       </c>
       <c r="D214" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E214" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F214" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G214" t="n">
-        <v>1.54850580055503</v>
+        <v>1.503098768728102</v>
       </c>
       <c r="H214" t="n">
-        <v>2.413944356327878</v>
+        <v>2.207802338628286</v>
       </c>
       <c r="I214" t="n">
-        <v>11.22403711125497</v>
+        <v>11.33629591084876</v>
       </c>
     </row>
     <row r="215">
@@ -6682,25 +6682,25 @@
         <v>44390</v>
       </c>
       <c r="C215" t="n">
-        <v>15.27574712864483</v>
+        <v>15.13444451646137</v>
       </c>
       <c r="D215" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E215" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F215" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G215" t="n">
-        <v>1.571557112665271</v>
+        <v>1.525474144292114</v>
       </c>
       <c r="H215" t="n">
-        <v>2.434894693164954</v>
+        <v>2.22696359333687</v>
       </c>
       <c r="I215" t="n">
-        <v>11.2692953228146</v>
+        <v>11.38200677883238</v>
       </c>
     </row>
     <row r="216">
@@ -6711,25 +6711,25 @@
         <v>44391</v>
       </c>
       <c r="C216" t="n">
-        <v>15.11827370491881</v>
+        <v>14.98257383883518</v>
       </c>
       <c r="D216" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E216" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F216" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G216" t="n">
-        <v>1.547149840800627</v>
+        <v>1.501782569953413</v>
       </c>
       <c r="H216" t="n">
-        <v>2.36971586735202</v>
+        <v>2.167350800820912</v>
       </c>
       <c r="I216" t="n">
-        <v>11.20140799676616</v>
+        <v>11.31344046806086</v>
       </c>
     </row>
     <row r="217">
@@ -6740,25 +6740,25 @@
         <v>44392</v>
       </c>
       <c r="C217" t="n">
-        <v>15.01803872601939</v>
+        <v>14.88302380631615</v>
       </c>
       <c r="D217" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E217" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F217" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G217" t="n">
-        <v>1.560709436280985</v>
+        <v>1.514944555697136</v>
       </c>
       <c r="H217" t="n">
-        <v>2.346437716091513</v>
+        <v>2.146060518525395</v>
       </c>
       <c r="I217" t="n">
-        <v>11.11089157364689</v>
+        <v>11.22201873209362</v>
       </c>
     </row>
     <row r="218">
@@ -6769,25 +6769,25 @@
         <v>44393</v>
       </c>
       <c r="C218" t="n">
-        <v>14.69393988346932</v>
+        <v>14.55419040493742</v>
       </c>
       <c r="D218" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E218" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F218" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G218" t="n">
-        <v>1.598676303625988</v>
+        <v>1.551798115779561</v>
       </c>
       <c r="H218" t="n">
-        <v>2.346437716091513</v>
+        <v>2.146060518525395</v>
       </c>
       <c r="I218" t="n">
-        <v>10.74882586375182</v>
+        <v>10.85633177063247</v>
       </c>
     </row>
     <row r="219">
@@ -6798,25 +6798,25 @@
         <v>44396</v>
       </c>
       <c r="C219" t="n">
-        <v>14.80299434098243</v>
+        <v>14.66541016313406</v>
       </c>
       <c r="D219" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E219" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F219" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G219" t="n">
-        <v>1.610879939351943</v>
+        <v>1.563643902748594</v>
       </c>
       <c r="H219" t="n">
-        <v>2.330143008979573</v>
+        <v>2.13115731979395</v>
       </c>
       <c r="I219" t="n">
-        <v>10.86197139265091</v>
+        <v>10.97060894059152</v>
       </c>
     </row>
     <row r="220">
@@ -6827,25 +6827,25 @@
         <v>44397</v>
       </c>
       <c r="C220" t="n">
-        <v>14.82938829009933</v>
+        <v>14.69526614948657</v>
       </c>
       <c r="D220" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E220" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F220" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G220" t="n">
-        <v>1.59732034428432</v>
+        <v>1.550481917405505</v>
       </c>
       <c r="H220" t="n">
-        <v>2.302209227115655</v>
+        <v>2.105608980718021</v>
       </c>
       <c r="I220" t="n">
-        <v>10.92985871869936</v>
+        <v>11.03917525136304</v>
       </c>
     </row>
     <row r="221">
@@ -6856,25 +6856,25 @@
         <v>44398</v>
       </c>
       <c r="C221" t="n">
-        <v>14.83999763443682</v>
+        <v>14.70065195166199</v>
       </c>
       <c r="D221" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E221" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F221" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G221" t="n">
-        <v>1.59732034428432</v>
+        <v>1.550481917405505</v>
       </c>
       <c r="H221" t="n">
-        <v>2.358076791721766</v>
+        <v>2.156705659673154</v>
       </c>
       <c r="I221" t="n">
-        <v>10.88460049843073</v>
+        <v>10.99346437458333</v>
       </c>
     </row>
     <row r="222">
@@ -6885,25 +6885,25 @@
         <v>44399</v>
       </c>
       <c r="C222" t="n">
-        <v>14.94055543211184</v>
+        <v>14.80257997428893</v>
       </c>
       <c r="D222" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E222" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F222" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G222" t="n">
-        <v>1.582404789049558</v>
+        <v>1.536003732887093</v>
       </c>
       <c r="H222" t="n">
-        <v>2.360404607023472</v>
+        <v>2.15883468806336</v>
       </c>
       <c r="I222" t="n">
-        <v>10.99774603603881</v>
+        <v>11.10774155333847</v>
       </c>
     </row>
     <row r="223">
@@ -6914,25 +6914,25 @@
         <v>44400</v>
       </c>
       <c r="C223" t="n">
-        <v>14.79433698980897</v>
+        <v>14.66085107865133</v>
       </c>
       <c r="D223" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E223" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F223" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G223" t="n">
-        <v>1.555285598088841</v>
+        <v>1.509679761399647</v>
       </c>
       <c r="H223" t="n">
-        <v>2.309192673020772</v>
+        <v>2.11199606588864</v>
       </c>
       <c r="I223" t="n">
-        <v>10.92985871869936</v>
+        <v>11.03917525136304</v>
       </c>
     </row>
     <row r="224">
@@ -6943,25 +6943,25 @@
         <v>44403</v>
       </c>
       <c r="C224" t="n">
-        <v>14.75239821359876</v>
+        <v>14.6235119964205</v>
       </c>
       <c r="D224" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E224" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F224" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G224" t="n">
-        <v>1.534946205074672</v>
+        <v>1.489936782984379</v>
       </c>
       <c r="H224" t="n">
-        <v>2.264964184044914</v>
+        <v>2.071544528081266</v>
       </c>
       <c r="I224" t="n">
-        <v>10.95248782447917</v>
+        <v>11.06203068535485</v>
       </c>
     </row>
     <row r="225">
@@ -6972,25 +6972,25 @@
         <v>44404</v>
       </c>
       <c r="C225" t="n">
-        <v>14.42947631019388</v>
+        <v>14.30714080863493</v>
       </c>
       <c r="D225" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E225" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F225" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G225" t="n">
-        <v>1.506471054772288</v>
+        <v>1.462296613122877</v>
       </c>
       <c r="H225" t="n">
-        <v>2.174179391669766</v>
+        <v>1.988512424879584</v>
       </c>
       <c r="I225" t="n">
-        <v>10.74882586375182</v>
+        <v>10.85633177063247</v>
       </c>
     </row>
     <row r="226">
@@ -7001,25 +7001,25 @@
         <v>44405</v>
       </c>
       <c r="C226" t="n">
-        <v>14.01033428291243</v>
+        <v>13.8962438432615</v>
       </c>
       <c r="D226" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E226" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F226" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G226" t="n">
-        <v>1.438673077370496</v>
+        <v>1.396486684404262</v>
       </c>
       <c r="H226" t="n">
-        <v>2.071755522786091</v>
+        <v>1.894835179726871</v>
       </c>
       <c r="I226" t="n">
-        <v>10.49990568275584</v>
+        <v>10.60492197913037</v>
       </c>
     </row>
     <row r="227">
@@ -7030,25 +7030,25 @@
         <v>44406</v>
       </c>
       <c r="C227" t="n">
-        <v>14.19193512464694</v>
+        <v>14.07396685669935</v>
       </c>
       <c r="D227" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E227" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F227" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G227" t="n">
-        <v>1.453588632192522</v>
+        <v>1.410964868522041</v>
       </c>
       <c r="H227" t="n">
-        <v>2.125295272090497</v>
+        <v>1.943802830291797</v>
       </c>
       <c r="I227" t="n">
-        <v>10.61305122036392</v>
+        <v>10.71919915788551</v>
       </c>
     </row>
     <row r="228">
@@ -7059,25 +7059,25 @@
         <v>44407</v>
       </c>
       <c r="C228" t="n">
-        <v>14.50833874639134</v>
+        <v>14.38800964527582</v>
       </c>
       <c r="D228" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E228" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F228" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G228" t="n">
-        <v>1.469860146768952</v>
+        <v>1.426759251414508</v>
       </c>
       <c r="H228" t="n">
-        <v>2.176507206971472</v>
+        <v>1.99064145326979</v>
       </c>
       <c r="I228" t="n">
-        <v>10.86197139265091</v>
+        <v>10.97060894059152</v>
       </c>
     </row>
     <row r="229">
@@ -7088,25 +7088,25 @@
         <v>44410</v>
       </c>
       <c r="C229" t="n">
-        <v>14.84605362494065</v>
+        <v>14.72260825027652</v>
       </c>
       <c r="D229" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E229" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F229" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G229" t="n">
-        <v>1.505115095017884</v>
+        <v>1.460980414348188</v>
       </c>
       <c r="H229" t="n">
-        <v>2.230046956275878</v>
+        <v>2.039609103834717</v>
       </c>
       <c r="I229" t="n">
-        <v>11.11089157364689</v>
+        <v>11.22201873209362</v>
       </c>
     </row>
     <row r="230">
@@ -7117,25 +7117,25 @@
         <v>44411</v>
       </c>
       <c r="C230" t="n">
-        <v>14.88821581360985</v>
+        <v>14.76518335235286</v>
       </c>
       <c r="D230" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E230" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F230" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G230" t="n">
-        <v>1.499691256825741</v>
+        <v>1.455715620050699</v>
       </c>
       <c r="H230" t="n">
-        <v>2.232374771577584</v>
+        <v>2.041738132224923</v>
       </c>
       <c r="I230" t="n">
-        <v>11.15614978520653</v>
+        <v>11.26772960007724</v>
       </c>
     </row>
     <row r="231">
@@ -7146,25 +7146,25 @@
         <v>44412</v>
       </c>
       <c r="C231" t="n">
-        <v>14.88931025749093</v>
+        <v>14.76224695766511</v>
       </c>
       <c r="D231" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E231" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F231" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G231" t="n">
-        <v>1.506471054772288</v>
+        <v>1.462296613122877</v>
       </c>
       <c r="H231" t="n">
-        <v>2.271947629071756</v>
+        <v>2.077931612448611</v>
       </c>
       <c r="I231" t="n">
-        <v>11.11089157364689</v>
+        <v>11.22201873209362</v>
       </c>
     </row>
     <row r="232">
@@ -7175,25 +7175,25 @@
         <v>44413</v>
       </c>
       <c r="C232" t="n">
-        <v>15.03899049808304</v>
+        <v>14.9140283525033</v>
       </c>
       <c r="D232" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E232" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F232" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G232" t="n">
-        <v>1.502403175921812</v>
+        <v>1.458348017199444</v>
       </c>
       <c r="H232" t="n">
-        <v>2.267291999346619</v>
+        <v>2.073673556471472</v>
       </c>
       <c r="I232" t="n">
-        <v>11.2692953228146</v>
+        <v>11.38200677883238</v>
       </c>
     </row>
     <row r="233">
@@ -7204,25 +7204,25 @@
         <v>44414</v>
       </c>
       <c r="C233" t="n">
-        <v>15.15703341632362</v>
+        <v>15.03138625254832</v>
       </c>
       <c r="D233" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E233" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F233" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G233" t="n">
-        <v>1.51596277140217</v>
+        <v>1.471510002943166</v>
       </c>
       <c r="H233" t="n">
-        <v>2.281258890278579</v>
+        <v>2.086447726009437</v>
       </c>
       <c r="I233" t="n">
-        <v>11.35981175464287</v>
+        <v>11.47342852359572</v>
       </c>
     </row>
     <row r="234">
@@ -7233,25 +7233,25 @@
         <v>44417</v>
       </c>
       <c r="C234" t="n">
-        <v>15.37112427467438</v>
+        <v>15.24177370198275</v>
       </c>
       <c r="D234" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E234" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F234" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G234" t="n">
-        <v>1.506471054772288</v>
+        <v>1.462296613122877</v>
       </c>
       <c r="H234" t="n">
-        <v>2.346437716091513</v>
+        <v>2.146060518525395</v>
       </c>
       <c r="I234" t="n">
-        <v>11.51821550381058</v>
+        <v>11.63341657033448</v>
       </c>
     </row>
     <row r="235">
@@ -7262,25 +7262,25 @@
         <v>44418</v>
       </c>
       <c r="C235" t="n">
-        <v>15.51315224932746</v>
+        <v>15.38330322559755</v>
       </c>
       <c r="D235" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E235" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F235" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G235" t="n">
-        <v>1.521386609594314</v>
+        <v>1.476774797240656</v>
       </c>
       <c r="H235" t="n">
-        <v>2.360404607023472</v>
+        <v>2.15883468806336</v>
       </c>
       <c r="I235" t="n">
-        <v>11.63136103270967</v>
+        <v>11.74769374029353</v>
       </c>
     </row>
     <row r="236">
@@ -7291,25 +7291,25 @@
         <v>44419</v>
       </c>
       <c r="C236" t="n">
-        <v>15.43710598304255</v>
+        <v>15.30773091714018</v>
       </c>
       <c r="D236" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E236" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F236" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G236" t="n">
-        <v>1.529522366882529</v>
+        <v>1.48467198868689</v>
       </c>
       <c r="H236" t="n">
-        <v>2.344109900789807</v>
+        <v>2.143931490135189</v>
       </c>
       <c r="I236" t="n">
-        <v>11.56347371537022</v>
+        <v>11.6791274383181</v>
       </c>
     </row>
     <row r="237">
@@ -7320,25 +7320,25 @@
         <v>44420</v>
       </c>
       <c r="C237" t="n">
-        <v>15.44833776322121</v>
+        <v>15.3187638744937</v>
       </c>
       <c r="D237" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E237" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F237" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G237" t="n">
-        <v>1.543081962362887</v>
+        <v>1.497833974430613</v>
       </c>
       <c r="H237" t="n">
-        <v>2.341782085488101</v>
+        <v>2.141802461744982</v>
       </c>
       <c r="I237" t="n">
-        <v>11.56347371537022</v>
+        <v>11.6791274383181</v>
       </c>
     </row>
     <row r="238">
@@ -7349,25 +7349,25 @@
         <v>44421</v>
       </c>
       <c r="C238" t="n">
-        <v>15.40947524540102</v>
+        <v>15.27913063042308</v>
       </c>
       <c r="D238" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E238" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F238" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G238" t="n">
-        <v>1.547149840800627</v>
+        <v>1.501782569953413</v>
       </c>
       <c r="H238" t="n">
-        <v>2.344109900789807</v>
+        <v>2.143931490135189</v>
       </c>
       <c r="I238" t="n">
-        <v>11.51821550381058</v>
+        <v>11.63341657033448</v>
       </c>
     </row>
     <row r="239">
@@ -7378,25 +7378,25 @@
         <v>44424</v>
       </c>
       <c r="C239" t="n">
-        <v>15.33436272341837</v>
+        <v>15.20535456997147</v>
       </c>
       <c r="D239" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E239" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F239" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G239" t="n">
-        <v>1.533590245320268</v>
+        <v>1.48862058420969</v>
       </c>
       <c r="H239" t="n">
-        <v>2.327815194556142</v>
+        <v>2.129028292207017</v>
       </c>
       <c r="I239" t="n">
-        <v>11.47295728354196</v>
+        <v>11.58770569355477</v>
       </c>
     </row>
     <row r="240">
@@ -7407,25 +7407,25 @@
         <v>44425</v>
       </c>
       <c r="C240" t="n">
-        <v>15.06550702599926</v>
+        <v>14.94013510495517</v>
       </c>
       <c r="D240" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E240" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F240" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G240" t="n">
-        <v>1.496979337729669</v>
+        <v>1.453083222901954</v>
       </c>
       <c r="H240" t="n">
-        <v>2.276603259675167</v>
+        <v>2.082189669229024</v>
       </c>
       <c r="I240" t="n">
-        <v>11.29192442859442</v>
+        <v>11.40486221282419</v>
       </c>
     </row>
     <row r="241">
@@ -7436,25 +7436,25 @@
         <v>44426</v>
       </c>
       <c r="C241" t="n">
-        <v>15.46404129059792</v>
+        <v>15.33967872427825</v>
       </c>
       <c r="D241" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E241" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F241" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G241" t="n">
-        <v>1.544437921704555</v>
+        <v>1.499150172804668</v>
       </c>
       <c r="H241" t="n">
-        <v>2.288242336183695</v>
+        <v>2.092834811180056</v>
       </c>
       <c r="I241" t="n">
-        <v>11.63136103270967</v>
+        <v>11.74769374029353</v>
       </c>
     </row>
     <row r="242">
@@ -7465,25 +7465,25 @@
         <v>44427</v>
       </c>
       <c r="C242" t="n">
-        <v>15.33067552991443</v>
+        <v>15.20823046431403</v>
       </c>
       <c r="D242" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E242" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F242" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G242" t="n">
-        <v>1.529522366882529</v>
+        <v>1.48467198868689</v>
       </c>
       <c r="H242" t="n">
-        <v>2.260308553441502</v>
+        <v>2.067286471300853</v>
       </c>
       <c r="I242" t="n">
-        <v>11.5408446095904</v>
+        <v>11.65627200432629</v>
       </c>
     </row>
     <row r="243">
@@ -7494,25 +7494,25 @@
         <v>44428</v>
       </c>
       <c r="C243" t="n">
-        <v>15.43936907616868</v>
+        <v>15.31805566959111</v>
       </c>
       <c r="D243" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E243" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F243" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G243" t="n">
-        <v>1.522742568935982</v>
+        <v>1.478090995614712</v>
       </c>
       <c r="H243" t="n">
-        <v>2.262636368743208</v>
+        <v>2.069415499691059</v>
       </c>
       <c r="I243" t="n">
-        <v>11.65399013848949</v>
+        <v>11.77054917428534</v>
       </c>
     </row>
     <row r="244">
@@ -7523,25 +7523,25 @@
         <v>44431</v>
       </c>
       <c r="C244" t="n">
-        <v>15.429427107464</v>
+        <v>15.30469135279117</v>
       </c>
       <c r="D244" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E244" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F244" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G244" t="n">
-        <v>1.562065396035389</v>
+        <v>1.516260754471825</v>
       </c>
       <c r="H244" t="n">
-        <v>2.281258890278579</v>
+        <v>2.086447726009437</v>
       </c>
       <c r="I244" t="n">
-        <v>11.58610282115004</v>
+        <v>11.70198287230991</v>
       </c>
     </row>
     <row r="245">
@@ -7552,25 +7552,25 @@
         <v>44432</v>
       </c>
       <c r="C245" t="n">
-        <v>15.71217007146966</v>
+        <v>15.5909729624243</v>
       </c>
       <c r="D245" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E245" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F245" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G245" t="n">
-        <v>1.555285598088841</v>
+        <v>1.509679761399647</v>
       </c>
       <c r="H245" t="n">
-        <v>2.276603259675167</v>
+        <v>2.082189669229024</v>
       </c>
       <c r="I245" t="n">
-        <v>11.88028121370565</v>
+        <v>11.99910353179563</v>
       </c>
     </row>
     <row r="246">
@@ -7581,25 +7581,25 @@
         <v>44433</v>
       </c>
       <c r="C246" t="n">
-        <v>15.92085200250711</v>
+        <v>15.79600337533921</v>
       </c>
       <c r="D246" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E246" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F246" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G246" t="n">
-        <v>1.576980950857415</v>
+        <v>1.530738938589604</v>
       </c>
       <c r="H246" t="n">
-        <v>2.327815194556142</v>
+        <v>2.129028292207017</v>
       </c>
       <c r="I246" t="n">
-        <v>12.01605585709355</v>
+        <v>12.13623614454259</v>
       </c>
     </row>
     <row r="247">
@@ -7610,25 +7610,25 @@
         <v>44434</v>
       </c>
       <c r="C247" t="n">
-        <v>15.91464018305128</v>
+        <v>15.78430190657884</v>
       </c>
       <c r="D247" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E247" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F247" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G247" t="n">
-        <v>1.58511670814563</v>
+        <v>1.538636130035837</v>
       </c>
       <c r="H247" t="n">
-        <v>2.381354943860548</v>
+        <v>2.177995942771944</v>
       </c>
       <c r="I247" t="n">
-        <v>11.9481685310451</v>
+        <v>12.06766983377106</v>
       </c>
     </row>
     <row r="248">
@@ -7639,25 +7639,25 @@
         <v>44435</v>
       </c>
       <c r="C248" t="n">
-        <v>14.9575733037414</v>
+        <v>14.81719814386083</v>
       </c>
       <c r="D248" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E248" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F248" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G248" t="n">
-        <v>1.811520089466912</v>
+        <v>1.758400656315249</v>
       </c>
       <c r="H248" t="n">
-        <v>2.292897965908832</v>
+        <v>2.097092867157195</v>
       </c>
       <c r="I248" t="n">
-        <v>10.85315524836565</v>
+        <v>10.96170462038839</v>
       </c>
     </row>
     <row r="249">
@@ -7665,28 +7665,28 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="C249" t="n">
-        <v>15.91464018305128</v>
+        <v>16.09467737550297</v>
       </c>
       <c r="D249" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E249" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F249" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G249" t="n">
-        <v>1.58511670814563</v>
+        <v>1.744420439031743</v>
       </c>
       <c r="H249" t="n">
-        <v>2.381354943860548</v>
+        <v>3.512881670002886</v>
       </c>
       <c r="I249" t="n">
-        <v>11.9481685310451</v>
+        <v>10.83737526646834</v>
       </c>
     </row>
     <row r="250">
@@ -7694,28 +7694,28 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="C250" t="n">
-        <v>14.9575733037414</v>
+        <v>16.58877628540041</v>
       </c>
       <c r="D250" t="n">
-        <v>16.86794655691663</v>
+        <v>16.70025541529807</v>
       </c>
       <c r="E250" t="n">
-        <v>18.49125206574521</v>
+        <v>18.28890107790129</v>
       </c>
       <c r="F250" t="n">
-        <v>15.24464104808805</v>
+        <v>15.11160975269485</v>
       </c>
       <c r="G250" t="n">
-        <v>1.811520089466912</v>
+        <v>1.750633869024553</v>
       </c>
       <c r="H250" t="n">
-        <v>2.292897965908832</v>
+        <v>3.482728179638685</v>
       </c>
       <c r="I250" t="n">
-        <v>10.85315524836565</v>
+        <v>11.35541423673718</v>
       </c>
     </row>
   </sheetData>
